--- a/Digikey/Schottky-Diodes.xlsx
+++ b/Digikey/Schottky-Diodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="28700" windowHeight="13520" tabRatio="609" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="609" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="5" r:id="rId1"/>
@@ -1051,6 +1051,11 @@
         <filter val="9527"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="25">
+      <filters>
+        <filter val="STOCK"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <sortState ref="A2:AD17">
     <sortCondition ref="Q1:Q26"/>
@@ -1093,7 +1098,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1131415" displayName="Table1131415" ref="A1:AA7" totalsRowShown="0">
-  <autoFilter ref="A1:AA7"/>
+  <autoFilter ref="A1:AA7">
+    <filterColumn colId="25">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:AE34">
     <sortCondition ref="N1:N77"/>
   </sortState>
@@ -1503,12 +1514,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView topLeftCell="G2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <pane xSplit="30300" topLeftCell="AC1"/>
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="Y33" sqref="Y33"/>
       <selection pane="topRight" activeCell="AD388" sqref="AD388"/>
     </sheetView>
   </sheetViews>
@@ -1631,7 +1641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" hidden="1">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -1711,7 +1721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" hidden="1">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1791,7 +1801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" hidden="1">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -1871,7 +1881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" hidden="1">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -1951,7 +1961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" hidden="1">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -2031,7 +2041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" hidden="1">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -2111,7 +2121,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" hidden="1">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -2191,7 +2201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" hidden="1">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -2271,7 +2281,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" hidden="1">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -2351,7 +2361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" hidden="1">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -2431,7 +2441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" hidden="1">
       <c r="A12" t="s">
         <v>81</v>
       </c>
@@ -2511,7 +2521,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" hidden="1">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -2591,7 +2601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" hidden="1">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -2751,7 +2761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" hidden="1">
       <c r="A16" t="s">
         <v>134</v>
       </c>
@@ -2831,7 +2841,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" hidden="1">
       <c r="A17" t="s">
         <v>141</v>
       </c>
@@ -3707,7 +3717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane xSplit="14340" topLeftCell="W1"/>
       <selection activeCell="P21" sqref="P21"/>
       <selection pane="topRight" activeCell="Z5" sqref="Z5"/>
@@ -3819,7 +3829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" hidden="1">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -4056,7 +4066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" hidden="1">
       <c r="A5" t="s">
         <v>212</v>
       </c>
@@ -4133,7 +4143,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" hidden="1">
       <c r="A6" t="s">
         <v>224</v>
       </c>
@@ -4210,7 +4220,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" hidden="1">
       <c r="A7" t="s">
         <v>224</v>
       </c>

--- a/Digikey/Schottky-Diodes.xlsx
+++ b/Digikey/Schottky-Diodes.xlsx
@@ -792,8 +792,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="111">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -910,7 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="111">
+  <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -966,6 +970,8 @@
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1021,6 +1027,8 @@
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1514,11 +1522,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AD27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <pane xSplit="30300" topLeftCell="AC1"/>
-      <selection activeCell="Y33" sqref="Y33"/>
+      <selection activeCell="W27" sqref="W27"/>
       <selection pane="topRight" activeCell="AD388" sqref="AD388"/>
     </sheetView>
   </sheetViews>

--- a/Digikey/Schottky-Diodes.xlsx
+++ b/Digikey/Schottky-Diodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="609" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="609" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="239">
   <si>
     <t>ï»¿"Datasheets"</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Through Hole</t>
   </si>
   <si>
-    <t>Column3</t>
-  </si>
-  <si>
     <t>Surface Mount</t>
   </si>
   <si>
@@ -738,13 +735,16 @@
   </si>
   <si>
     <t>Schottky Diodes</t>
+  </si>
+  <si>
+    <t>Device</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -774,16 +774,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor rgb="FF4F81BD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -791,6 +804,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -909,10 +933,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1038,33 +1063,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table1" displayName="Table1" ref="A1:AD27" totalsRowShown="0">
-  <autoFilter ref="A1:AD27">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="13747"/>
-        <filter val="1534"/>
-        <filter val="15634"/>
-        <filter val="20633"/>
-        <filter val="22636"/>
-        <filter val="2532"/>
-        <filter val="27557"/>
-        <filter val="369"/>
-        <filter val="46290"/>
-        <filter val="47530"/>
-        <filter val="50688"/>
-        <filter val="7238"/>
-        <filter val="87700"/>
-        <filter val="9084"/>
-        <filter val="9495"/>
-        <filter val="9527"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="25">
-      <filters>
-        <filter val="STOCK"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AD27"/>
   <sortState ref="A2:AD17">
     <sortCondition ref="Q1:Q26"/>
   </sortState>
@@ -1096,7 +1095,7 @@
     <tableColumn id="25" name="Operating Temperature - Junction"/>
     <tableColumn id="26" name="Stock"/>
     <tableColumn id="27" name="Package"/>
-    <tableColumn id="28" name="Column3"/>
+    <tableColumn id="28" name="Device"/>
     <tableColumn id="29" name="Column4"/>
     <tableColumn id="30" name="Column5"/>
   </tableColumns>
@@ -1105,18 +1104,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1131415" displayName="Table1131415" ref="A1:AA7" totalsRowShown="0">
-  <autoFilter ref="A1:AA7">
-    <filterColumn colId="25">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1131415" displayName="Table1131415" ref="A1:AB7" totalsRowShown="0">
+  <autoFilter ref="A1:AB7"/>
   <sortState ref="A2:AE34">
     <sortCondition ref="N1:N77"/>
   </sortState>
-  <tableColumns count="27">
+  <tableColumns count="28">
     <tableColumn id="1" name="ï»¿&quot;Datasheets&quot;"/>
     <tableColumn id="2" name="Image"/>
     <tableColumn id="3" name="Digi-Key Part Number"/>
@@ -1144,6 +1137,7 @@
     <tableColumn id="24" name="Operating Temperature - Junction"/>
     <tableColumn id="45" name="Stock"/>
     <tableColumn id="47" name="Package"/>
+    <tableColumn id="25" name="Device"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1487,23 +1481,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1522,12 +1516,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <pane xSplit="30300" topLeftCell="AC1"/>
-      <selection activeCell="W27" sqref="W27"/>
+      <selection activeCell="AB1" sqref="AB1"/>
       <selection pane="topRight" activeCell="AD388" sqref="AD388"/>
     </sheetView>
   </sheetViews>
@@ -1558,7 +1551,7 @@
     <col min="26" max="30" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" ht="16" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1599,28 +1592,28 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>38</v>
-      </c>
-      <c r="U1" t="s">
-        <v>39</v>
       </c>
       <c r="V1" t="s">
         <v>13</v>
@@ -1629,10 +1622,10 @@
         <v>14</v>
       </c>
       <c r="X1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z1" t="s">
         <v>24</v>
@@ -1640,34 +1633,34 @@
       <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" t="s">
-        <v>27</v>
+      <c r="AB1" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="AC1" t="s">
         <v>25</v>
       </c>
       <c r="AD1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" hidden="1">
+    <row r="2" spans="1:30" ht="16" thickTop="1">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
       </c>
       <c r="G2">
         <v>50688</v>
@@ -1691,63 +1684,63 @@
         <v>18</v>
       </c>
       <c r="N2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>48</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>52</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" t="s">
         <v>53</v>
       </c>
-      <c r="U2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
       <c r="Z2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:30" hidden="1">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
         <v>59</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
       </c>
       <c r="G3">
         <v>9495</v>
@@ -1771,37 +1764,37 @@
         <v>18</v>
       </c>
       <c r="N3" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" t="s">
         <v>47</v>
       </c>
-      <c r="O3" t="s">
-        <v>48</v>
-      </c>
       <c r="P3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3" t="s">
         <v>62</v>
       </c>
-      <c r="R3" t="s">
-        <v>51</v>
-      </c>
-      <c r="S3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" t="s">
-        <v>63</v>
-      </c>
       <c r="U3" t="s">
         <v>18</v>
       </c>
       <c r="V3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
         <v>54</v>
-      </c>
-      <c r="X3" t="s">
-        <v>55</v>
       </c>
       <c r="Y3" t="s">
         <v>17</v>
@@ -1810,24 +1803,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:30" hidden="1">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" t="s">
-        <v>65</v>
-      </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>9084</v>
@@ -1851,37 +1844,37 @@
         <v>18</v>
       </c>
       <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" t="s">
         <v>47</v>
       </c>
-      <c r="O4" t="s">
-        <v>48</v>
-      </c>
       <c r="P4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" t="s">
         <v>61</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4" t="s">
         <v>62</v>
       </c>
-      <c r="R4" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" t="s">
-        <v>52</v>
-      </c>
-      <c r="T4" t="s">
-        <v>63</v>
-      </c>
       <c r="U4" t="s">
         <v>18</v>
       </c>
       <c r="V4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" t="s">
         <v>54</v>
-      </c>
-      <c r="X4" t="s">
-        <v>55</v>
       </c>
       <c r="Y4" t="s">
         <v>17</v>
@@ -1890,24 +1883,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:30" hidden="1">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
         <v>66</v>
       </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>67</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
         <v>68</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>69</v>
       </c>
       <c r="G5">
         <v>7238</v>
@@ -1931,63 +1924,63 @@
         <v>18</v>
       </c>
       <c r="N5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
         <v>47</v>
       </c>
-      <c r="O5" t="s">
-        <v>48</v>
-      </c>
       <c r="P5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" t="s">
         <v>70</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U5" t="s">
         <v>71</v>
       </c>
-      <c r="R5" t="s">
-        <v>51</v>
-      </c>
-      <c r="S5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" t="s">
         <v>53</v>
       </c>
-      <c r="U5" t="s">
-        <v>72</v>
-      </c>
-      <c r="V5" t="s">
-        <v>28</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>54</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>55</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>56</v>
       </c>
       <c r="Z5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:30" hidden="1">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
         <v>73</v>
       </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>74</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
         <v>75</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
       </c>
       <c r="G6">
         <v>9527</v>
@@ -2011,63 +2004,63 @@
         <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" t="s">
         <v>77</v>
       </c>
-      <c r="P6" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" t="s">
         <v>78</v>
       </c>
-      <c r="R6" t="s">
-        <v>51</v>
-      </c>
-      <c r="S6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>79</v>
       </c>
-      <c r="U6" t="s">
-        <v>80</v>
-      </c>
       <c r="V6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W6" t="s">
+        <v>53</v>
+      </c>
+      <c r="X6" t="s">
         <v>54</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>55</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>56</v>
       </c>
       <c r="Z6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:30" hidden="1">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
         <v>81</v>
       </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>82</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
         <v>83</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>84</v>
       </c>
       <c r="G7">
         <v>22636</v>
@@ -2091,63 +2084,63 @@
         <v>18</v>
       </c>
       <c r="N7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O7" t="s">
         <v>19</v>
       </c>
       <c r="P7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7" t="s">
         <v>85</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>86</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T7" t="s">
         <v>87</v>
       </c>
-      <c r="S7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
+        <v>18</v>
+      </c>
+      <c r="V7" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" t="s">
+        <v>53</v>
+      </c>
+      <c r="X7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y7" t="s">
         <v>88</v>
-      </c>
-      <c r="U7" t="s">
-        <v>18</v>
-      </c>
-      <c r="V7" t="s">
-        <v>28</v>
-      </c>
-      <c r="W7" t="s">
-        <v>54</v>
-      </c>
-      <c r="X7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>89</v>
       </c>
       <c r="Z7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:30" hidden="1">
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
         <v>90</v>
       </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>91</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
         <v>92</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>93</v>
       </c>
       <c r="G8">
         <v>15634</v>
@@ -2171,63 +2164,63 @@
         <v>18</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O8" t="s">
         <v>19</v>
       </c>
       <c r="P8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8" t="s">
         <v>94</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S8" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" t="s">
         <v>95</v>
       </c>
-      <c r="R8" t="s">
-        <v>87</v>
-      </c>
-      <c r="S8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T8" t="s">
-        <v>96</v>
-      </c>
       <c r="U8" t="s">
         <v>18</v>
       </c>
       <c r="V8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W8" t="s">
+        <v>53</v>
+      </c>
+      <c r="X8" t="s">
         <v>54</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>55</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>56</v>
       </c>
       <c r="Z8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:30" hidden="1">
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
         <v>97</v>
       </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>98</v>
       </c>
-      <c r="D9" t="s">
-        <v>99</v>
-      </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9">
         <v>13747</v>
@@ -2251,63 +2244,63 @@
         <v>18</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q9" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" t="s">
         <v>100</v>
       </c>
-      <c r="R9" t="s">
-        <v>51</v>
-      </c>
-      <c r="S9" t="s">
-        <v>18</v>
-      </c>
-      <c r="T9" t="s">
-        <v>101</v>
-      </c>
       <c r="U9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W9" t="s">
+        <v>53</v>
+      </c>
+      <c r="X9" t="s">
         <v>54</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>55</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>56</v>
       </c>
       <c r="Z9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:30" hidden="1">
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
         <v>102</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
         <v>103</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>104</v>
       </c>
       <c r="G10">
         <v>369</v>
@@ -2331,63 +2324,63 @@
         <v>18</v>
       </c>
       <c r="N10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" t="s">
         <v>47</v>
       </c>
-      <c r="O10" t="s">
-        <v>48</v>
-      </c>
       <c r="P10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q10" t="s">
+        <v>104</v>
+      </c>
+      <c r="R10" t="s">
+        <v>86</v>
+      </c>
+      <c r="S10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" t="s">
         <v>105</v>
       </c>
-      <c r="R10" t="s">
-        <v>87</v>
-      </c>
-      <c r="S10" t="s">
-        <v>18</v>
-      </c>
-      <c r="T10" t="s">
-        <v>106</v>
-      </c>
       <c r="U10" t="s">
         <v>18</v>
       </c>
       <c r="V10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W10" t="s">
+        <v>53</v>
+      </c>
+      <c r="X10" t="s">
         <v>54</v>
       </c>
-      <c r="X10" t="s">
-        <v>55</v>
-      </c>
       <c r="Y10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:30" hidden="1">
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
         <v>107</v>
       </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>108</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
         <v>109</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>110</v>
       </c>
       <c r="G11">
         <v>1534</v>
@@ -2411,37 +2404,37 @@
         <v>18</v>
       </c>
       <c r="N11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" t="s">
         <v>47</v>
       </c>
-      <c r="O11" t="s">
-        <v>48</v>
-      </c>
       <c r="P11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R11" t="s">
+        <v>86</v>
+      </c>
+      <c r="S11" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" t="s">
         <v>111</v>
       </c>
-      <c r="R11" t="s">
-        <v>87</v>
-      </c>
-      <c r="S11" t="s">
-        <v>18</v>
-      </c>
-      <c r="T11" t="s">
-        <v>112</v>
-      </c>
       <c r="U11" t="s">
         <v>18</v>
       </c>
       <c r="V11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W11" t="s">
+        <v>53</v>
+      </c>
+      <c r="X11" t="s">
         <v>54</v>
-      </c>
-      <c r="X11" t="s">
-        <v>55</v>
       </c>
       <c r="Y11" t="s">
         <v>17</v>
@@ -2450,24 +2443,24 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:30" hidden="1">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" t="s">
         <v>113</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
         <v>114</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>115</v>
       </c>
       <c r="G12">
         <v>87700</v>
@@ -2491,63 +2484,63 @@
         <v>18</v>
       </c>
       <c r="N12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q12" t="s">
+        <v>115</v>
+      </c>
+      <c r="R12" t="s">
+        <v>86</v>
+      </c>
+      <c r="S12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12" t="s">
         <v>116</v>
       </c>
-      <c r="R12" t="s">
-        <v>87</v>
-      </c>
-      <c r="S12" t="s">
-        <v>18</v>
-      </c>
-      <c r="T12" t="s">
-        <v>117</v>
-      </c>
       <c r="U12" t="s">
         <v>18</v>
       </c>
       <c r="V12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W12" t="s">
+        <v>53</v>
+      </c>
+      <c r="X12" t="s">
         <v>54</v>
       </c>
-      <c r="X12" t="s">
-        <v>55</v>
-      </c>
       <c r="Y12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:30" hidden="1">
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
         <v>118</v>
       </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>119</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
         <v>120</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" t="s">
-        <v>121</v>
       </c>
       <c r="G13">
         <v>27557</v>
@@ -2571,63 +2564,63 @@
         <v>18</v>
       </c>
       <c r="N13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q13" t="s">
         <v>122</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
+        <v>86</v>
+      </c>
+      <c r="S13" t="s">
         <v>123</v>
       </c>
-      <c r="R13" t="s">
-        <v>87</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>124</v>
       </c>
-      <c r="T13" t="s">
-        <v>125</v>
-      </c>
       <c r="U13" t="s">
         <v>18</v>
       </c>
       <c r="V13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W13" t="s">
+        <v>53</v>
+      </c>
+      <c r="X13" t="s">
         <v>54</v>
       </c>
-      <c r="X13" t="s">
-        <v>55</v>
-      </c>
       <c r="Y13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:30" hidden="1">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" t="s">
         <v>126</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
         <v>127</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" t="s">
-        <v>128</v>
       </c>
       <c r="G14">
         <v>20633</v>
@@ -2651,63 +2644,63 @@
         <v>18</v>
       </c>
       <c r="N14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" t="s">
         <v>47</v>
       </c>
-      <c r="O14" t="s">
-        <v>48</v>
-      </c>
       <c r="P14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14" t="s">
         <v>122</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
+        <v>86</v>
+      </c>
+      <c r="S14" t="s">
         <v>123</v>
       </c>
-      <c r="R14" t="s">
-        <v>87</v>
-      </c>
-      <c r="S14" t="s">
-        <v>124</v>
-      </c>
       <c r="T14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U14" t="s">
         <v>18</v>
       </c>
       <c r="V14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W14" t="s">
+        <v>53</v>
+      </c>
+      <c r="X14" t="s">
         <v>54</v>
       </c>
-      <c r="X14" t="s">
-        <v>55</v>
-      </c>
       <c r="Y14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:30" hidden="1">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" t="s">
         <v>130</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
         <v>131</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>132</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2731,63 +2724,63 @@
         <v>18</v>
       </c>
       <c r="N15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" t="s">
         <v>19</v>
       </c>
       <c r="P15" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q15" t="s">
         <v>122</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
+        <v>86</v>
+      </c>
+      <c r="S15" t="s">
         <v>123</v>
       </c>
-      <c r="R15" t="s">
-        <v>87</v>
-      </c>
-      <c r="S15" t="s">
-        <v>124</v>
-      </c>
       <c r="T15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U15" t="s">
         <v>18</v>
       </c>
       <c r="V15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W15" t="s">
+        <v>53</v>
+      </c>
+      <c r="X15" t="s">
         <v>54</v>
       </c>
-      <c r="X15" t="s">
-        <v>55</v>
-      </c>
       <c r="Y15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:30" hidden="1">
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
         <v>134</v>
       </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>135</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
         <v>136</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" t="s">
-        <v>137</v>
       </c>
       <c r="G16">
         <v>2532</v>
@@ -2811,63 +2804,63 @@
         <v>18</v>
       </c>
       <c r="N16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P16" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q16" t="s">
         <v>138</v>
       </c>
-      <c r="P16" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
+        <v>86</v>
+      </c>
+      <c r="S16" t="s">
+        <v>18</v>
+      </c>
+      <c r="T16" t="s">
         <v>139</v>
       </c>
-      <c r="R16" t="s">
-        <v>87</v>
-      </c>
-      <c r="S16" t="s">
-        <v>18</v>
-      </c>
-      <c r="T16" t="s">
-        <v>140</v>
-      </c>
       <c r="U16" t="s">
         <v>18</v>
       </c>
       <c r="V16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W16" t="s">
+        <v>53</v>
+      </c>
+      <c r="X16" t="s">
         <v>54</v>
       </c>
-      <c r="X16" t="s">
-        <v>55</v>
-      </c>
       <c r="Y16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:30" hidden="1">
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
         <v>141</v>
       </c>
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>142</v>
       </c>
-      <c r="D17" t="s">
-        <v>143</v>
-      </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17">
         <v>47530</v>
@@ -2891,63 +2884,63 @@
         <v>18</v>
       </c>
       <c r="N17" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" t="s">
         <v>47</v>
       </c>
-      <c r="O17" t="s">
-        <v>48</v>
-      </c>
       <c r="P17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q17" t="s">
+        <v>143</v>
+      </c>
+      <c r="R17" t="s">
+        <v>50</v>
+      </c>
+      <c r="S17" t="s">
+        <v>18</v>
+      </c>
+      <c r="T17" t="s">
         <v>144</v>
       </c>
-      <c r="R17" t="s">
-        <v>51</v>
-      </c>
-      <c r="S17" t="s">
-        <v>18</v>
-      </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
+        <v>18</v>
+      </c>
+      <c r="V17" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" t="s">
+        <v>53</v>
+      </c>
+      <c r="X17" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y17" t="s">
         <v>145</v>
-      </c>
-      <c r="U17" t="s">
-        <v>18</v>
-      </c>
-      <c r="V17" t="s">
-        <v>28</v>
-      </c>
-      <c r="W17" t="s">
-        <v>54</v>
-      </c>
-      <c r="X17" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>146</v>
       </c>
       <c r="Z17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:30" hidden="1">
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
         <v>147</v>
       </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>148</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
         <v>149</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" t="s">
-        <v>150</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2971,60 +2964,60 @@
         <v>18</v>
       </c>
       <c r="N18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O18" t="s">
         <v>19</v>
       </c>
       <c r="P18" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q18" t="s">
         <v>151</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
+        <v>86</v>
+      </c>
+      <c r="S18" t="s">
+        <v>18</v>
+      </c>
+      <c r="T18" t="s">
         <v>152</v>
       </c>
-      <c r="R18" t="s">
-        <v>87</v>
-      </c>
-      <c r="S18" t="s">
-        <v>18</v>
-      </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
+        <v>18</v>
+      </c>
+      <c r="V18" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" t="s">
+        <v>53</v>
+      </c>
+      <c r="X18" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
         <v>153</v>
       </c>
-      <c r="U18" t="s">
-        <v>18</v>
-      </c>
-      <c r="V18" t="s">
-        <v>28</v>
-      </c>
-      <c r="W18" t="s">
-        <v>54</v>
-      </c>
-      <c r="X18" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" hidden="1">
-      <c r="A19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>154</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
         <v>155</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" t="s">
-        <v>156</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3048,60 +3041,60 @@
         <v>18</v>
       </c>
       <c r="N19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" t="s">
         <v>47</v>
       </c>
-      <c r="O19" t="s">
-        <v>48</v>
-      </c>
       <c r="P19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q19" t="s">
+        <v>156</v>
+      </c>
+      <c r="R19" t="s">
+        <v>86</v>
+      </c>
+      <c r="S19" t="s">
+        <v>18</v>
+      </c>
+      <c r="T19" t="s">
         <v>157</v>
       </c>
-      <c r="R19" t="s">
-        <v>87</v>
-      </c>
-      <c r="S19" t="s">
-        <v>18</v>
-      </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
+        <v>18</v>
+      </c>
+      <c r="V19" t="s">
+        <v>27</v>
+      </c>
+      <c r="W19" t="s">
+        <v>53</v>
+      </c>
+      <c r="X19" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
         <v>158</v>
       </c>
-      <c r="U19" t="s">
-        <v>18</v>
-      </c>
-      <c r="V19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W19" t="s">
-        <v>54</v>
-      </c>
-      <c r="X19" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" hidden="1">
-      <c r="A20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>159</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
         <v>160</v>
-      </c>
-      <c r="E20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" t="s">
-        <v>161</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3125,60 +3118,60 @@
         <v>18</v>
       </c>
       <c r="N20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S20" t="s">
         <v>18</v>
       </c>
       <c r="T20" t="s">
+        <v>161</v>
+      </c>
+      <c r="U20" t="s">
+        <v>18</v>
+      </c>
+      <c r="V20" t="s">
+        <v>27</v>
+      </c>
+      <c r="W20" t="s">
+        <v>53</v>
+      </c>
+      <c r="X20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
         <v>162</v>
       </c>
-      <c r="U20" t="s">
-        <v>18</v>
-      </c>
-      <c r="V20" t="s">
-        <v>28</v>
-      </c>
-      <c r="W20" t="s">
-        <v>54</v>
-      </c>
-      <c r="X20" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" hidden="1">
-      <c r="A21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>163</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
         <v>164</v>
-      </c>
-      <c r="E21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" t="s">
-        <v>165</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3202,60 +3195,60 @@
         <v>18</v>
       </c>
       <c r="N21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O21" t="s">
         <v>16</v>
       </c>
       <c r="P21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q21" t="s">
+        <v>165</v>
+      </c>
+      <c r="R21" t="s">
+        <v>86</v>
+      </c>
+      <c r="S21" t="s">
+        <v>18</v>
+      </c>
+      <c r="T21" t="s">
         <v>166</v>
       </c>
-      <c r="R21" t="s">
-        <v>87</v>
-      </c>
-      <c r="S21" t="s">
-        <v>18</v>
-      </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
+        <v>18</v>
+      </c>
+      <c r="V21" t="s">
+        <v>27</v>
+      </c>
+      <c r="W21" t="s">
+        <v>53</v>
+      </c>
+      <c r="X21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
         <v>167</v>
       </c>
-      <c r="U21" t="s">
-        <v>18</v>
-      </c>
-      <c r="V21" t="s">
-        <v>28</v>
-      </c>
-      <c r="W21" t="s">
-        <v>54</v>
-      </c>
-      <c r="X21" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" hidden="1">
-      <c r="A22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>168</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
         <v>169</v>
-      </c>
-      <c r="E22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" t="s">
-        <v>170</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3279,60 +3272,60 @@
         <v>18</v>
       </c>
       <c r="N22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S22" t="s">
         <v>18</v>
       </c>
       <c r="T22" t="s">
+        <v>170</v>
+      </c>
+      <c r="U22" t="s">
+        <v>18</v>
+      </c>
+      <c r="V22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W22" t="s">
+        <v>53</v>
+      </c>
+      <c r="X22" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23" t="s">
         <v>171</v>
       </c>
-      <c r="U22" t="s">
-        <v>18</v>
-      </c>
-      <c r="V22" t="s">
-        <v>28</v>
-      </c>
-      <c r="W22" t="s">
-        <v>54</v>
-      </c>
-      <c r="X22" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" hidden="1">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
         <v>172</v>
       </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>173</v>
       </c>
-      <c r="D23" t="s">
-        <v>174</v>
-      </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -3356,60 +3349,60 @@
         <v>18</v>
       </c>
       <c r="N23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O23" t="s">
         <v>19</v>
       </c>
       <c r="P23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q23" t="s">
+        <v>174</v>
+      </c>
+      <c r="R23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S23" t="s">
+        <v>18</v>
+      </c>
+      <c r="T23" t="s">
         <v>175</v>
       </c>
-      <c r="R23" t="s">
-        <v>87</v>
-      </c>
-      <c r="S23" t="s">
-        <v>18</v>
-      </c>
-      <c r="T23" t="s">
-        <v>176</v>
-      </c>
       <c r="U23" t="s">
         <v>18</v>
       </c>
       <c r="V23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W23" t="s">
+        <v>53</v>
+      </c>
+      <c r="X23" t="s">
         <v>54</v>
-      </c>
-      <c r="X23" t="s">
-        <v>55</v>
       </c>
       <c r="Y23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:30" hidden="1">
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" t="s">
         <v>177</v>
       </c>
-      <c r="D24" t="s">
-        <v>178</v>
-      </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3433,60 +3426,60 @@
         <v>18</v>
       </c>
       <c r="N24" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" t="s">
         <v>47</v>
       </c>
-      <c r="O24" t="s">
-        <v>48</v>
-      </c>
       <c r="P24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q24" t="s">
+        <v>110</v>
+      </c>
+      <c r="R24" t="s">
+        <v>86</v>
+      </c>
+      <c r="S24" t="s">
+        <v>18</v>
+      </c>
+      <c r="T24" t="s">
         <v>111</v>
       </c>
-      <c r="R24" t="s">
-        <v>87</v>
-      </c>
-      <c r="S24" t="s">
-        <v>18</v>
-      </c>
-      <c r="T24" t="s">
-        <v>112</v>
-      </c>
       <c r="U24" t="s">
         <v>18</v>
       </c>
       <c r="V24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W24" t="s">
+        <v>53</v>
+      </c>
+      <c r="X24" t="s">
         <v>54</v>
-      </c>
-      <c r="X24" t="s">
-        <v>55</v>
       </c>
       <c r="Y24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:30" hidden="1">
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" t="s">
         <v>179</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
         <v>180</v>
-      </c>
-      <c r="E25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" t="s">
-        <v>181</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3510,60 +3503,60 @@
         <v>18</v>
       </c>
       <c r="N25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S25" t="s">
         <v>18</v>
       </c>
       <c r="T25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U25" t="s">
         <v>18</v>
       </c>
       <c r="V25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W25" t="s">
+        <v>53</v>
+      </c>
+      <c r="X25" t="s">
         <v>54</v>
-      </c>
-      <c r="X25" t="s">
-        <v>55</v>
       </c>
       <c r="Y25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:30" hidden="1">
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" t="s">
         <v>183</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
         <v>184</v>
-      </c>
-      <c r="E26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s">
-        <v>185</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3587,37 +3580,37 @@
         <v>18</v>
       </c>
       <c r="N26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q26" t="s">
+        <v>185</v>
+      </c>
+      <c r="R26" t="s">
+        <v>86</v>
+      </c>
+      <c r="S26" t="s">
+        <v>18</v>
+      </c>
+      <c r="T26" t="s">
         <v>186</v>
       </c>
-      <c r="R26" t="s">
-        <v>87</v>
-      </c>
-      <c r="S26" t="s">
-        <v>18</v>
-      </c>
-      <c r="T26" t="s">
-        <v>187</v>
-      </c>
       <c r="U26" t="s">
         <v>18</v>
       </c>
       <c r="V26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W26" t="s">
+        <v>53</v>
+      </c>
+      <c r="X26" t="s">
         <v>54</v>
-      </c>
-      <c r="X26" t="s">
-        <v>55</v>
       </c>
       <c r="Y26" t="s">
         <v>17</v>
@@ -3625,22 +3618,22 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="G27" s="1">
         <v>46290</v>
@@ -3664,40 +3657,40 @@
         <v>18</v>
       </c>
       <c r="N27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="P27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="R27" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W27" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="R27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W27" s="1" t="s">
+      <c r="X27" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="X27" s="1" t="s">
+      <c r="Y27" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="Y27" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>21</v>
@@ -3724,12 +3717,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <pane xSplit="14340" topLeftCell="W1"/>
-      <selection activeCell="P21" sqref="P21"/>
-      <selection pane="topRight" activeCell="Z5" sqref="Z5"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <pane xSplit="14340" topLeftCell="W1" activePane="topRight"/>
+      <selection activeCell="V3" sqref="V3"/>
+      <selection pane="topRight" activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3755,7 +3748,7 @@
     <col min="24" max="24" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28" ht="16" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3796,28 +3789,28 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>38</v>
-      </c>
-      <c r="U1" t="s">
-        <v>39</v>
       </c>
       <c r="V1" t="s">
         <v>13</v>
@@ -3826,10 +3819,10 @@
         <v>14</v>
       </c>
       <c r="X1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z1" t="s">
         <v>24</v>
@@ -3837,25 +3830,28 @@
       <c r="AA1" t="s">
         <v>22</v>
       </c>
+      <c r="AB1" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" hidden="1">
+    <row r="2" spans="1:28" ht="16" thickTop="1">
       <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
         <v>199</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>200</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>201</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>202</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>203</v>
-      </c>
-      <c r="F2" t="s">
-        <v>204</v>
       </c>
       <c r="G2">
         <v>25698</v>
@@ -3879,25 +3875,25 @@
         <v>18</v>
       </c>
       <c r="N2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
-        <v>48</v>
-      </c>
       <c r="P2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S2" t="s">
         <v>18</v>
       </c>
       <c r="T2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U2" t="s">
         <v>18</v>
@@ -3906,33 +3902,33 @@
         <v>26</v>
       </c>
       <c r="W2" t="s">
+        <v>205</v>
+      </c>
+      <c r="X2" t="s">
         <v>206</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>207</v>
       </c>
-      <c r="Y2" t="s">
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>209</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" t="s">
         <v>210</v>
-      </c>
-      <c r="E3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F3" t="s">
-        <v>211</v>
       </c>
       <c r="G3">
         <v>10410</v>
@@ -3956,25 +3952,25 @@
         <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3" t="s">
         <v>85</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>86</v>
       </c>
-      <c r="R3" t="s">
-        <v>87</v>
-      </c>
       <c r="S3" t="s">
         <v>18</v>
       </c>
       <c r="T3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U3" t="s">
         <v>18</v>
@@ -3983,36 +3979,36 @@
         <v>26</v>
       </c>
       <c r="W3" t="s">
+        <v>205</v>
+      </c>
+      <c r="X3" t="s">
         <v>206</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>207</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>208</v>
       </c>
       <c r="Z3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" t="s">
         <v>212</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>213</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>214</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F4" t="s">
         <v>215</v>
-      </c>
-      <c r="E4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F4" t="s">
-        <v>216</v>
       </c>
       <c r="G4">
         <v>3784</v>
@@ -4036,25 +4032,25 @@
         <v>18</v>
       </c>
       <c r="N4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q4" t="s">
         <v>217</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
+        <v>86</v>
+      </c>
+      <c r="S4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" t="s">
         <v>218</v>
-      </c>
-      <c r="R4" t="s">
-        <v>87</v>
-      </c>
-      <c r="S4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" t="s">
-        <v>219</v>
       </c>
       <c r="U4" t="s">
         <v>18</v>
@@ -4063,36 +4059,36 @@
         <v>26</v>
       </c>
       <c r="W4" t="s">
+        <v>219</v>
+      </c>
+      <c r="X4" t="s">
         <v>220</v>
       </c>
-      <c r="X4" t="s">
-        <v>221</v>
-      </c>
       <c r="Y4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:27" hidden="1">
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" t="s">
         <v>212</v>
       </c>
-      <c r="B5" t="s">
-        <v>213</v>
-      </c>
       <c r="C5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" t="s">
         <v>222</v>
       </c>
-      <c r="D5" t="s">
-        <v>223</v>
-      </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G5">
         <v>229</v>
@@ -4116,25 +4112,25 @@
         <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q5" t="s">
         <v>217</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T5" t="s">
         <v>218</v>
-      </c>
-      <c r="R5" t="s">
-        <v>87</v>
-      </c>
-      <c r="S5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" t="s">
-        <v>219</v>
       </c>
       <c r="U5" t="s">
         <v>18</v>
@@ -4143,33 +4139,33 @@
         <v>26</v>
       </c>
       <c r="W5" t="s">
+        <v>219</v>
+      </c>
+      <c r="X5" t="s">
         <v>220</v>
       </c>
-      <c r="X5" t="s">
-        <v>221</v>
-      </c>
       <c r="Y5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:27" hidden="1">
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" t="s">
         <v>224</v>
       </c>
-      <c r="B6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>225</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" t="s">
         <v>226</v>
-      </c>
-      <c r="E6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F6" t="s">
-        <v>227</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4193,25 +4189,25 @@
         <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O6" t="s">
         <v>19</v>
       </c>
       <c r="P6" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q6" t="s">
         <v>228</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" t="s">
         <v>229</v>
-      </c>
-      <c r="R6" t="s">
-        <v>87</v>
-      </c>
-      <c r="S6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" t="s">
-        <v>230</v>
       </c>
       <c r="U6" t="s">
         <v>18</v>
@@ -4220,33 +4216,33 @@
         <v>26</v>
       </c>
       <c r="W6" t="s">
+        <v>219</v>
+      </c>
+      <c r="X6" t="s">
         <v>220</v>
       </c>
-      <c r="X6" t="s">
-        <v>221</v>
-      </c>
       <c r="Y6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:27" hidden="1">
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" t="s">
         <v>231</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" t="s">
         <v>232</v>
-      </c>
-      <c r="E7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F7" t="s">
-        <v>233</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4270,25 +4266,25 @@
         <v>18</v>
       </c>
       <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
         <v>47</v>
       </c>
-      <c r="O7" t="s">
-        <v>48</v>
-      </c>
       <c r="P7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q7" t="s">
+        <v>233</v>
+      </c>
+      <c r="R7" t="s">
+        <v>86</v>
+      </c>
+      <c r="S7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T7" t="s">
         <v>234</v>
-      </c>
-      <c r="R7" t="s">
-        <v>87</v>
-      </c>
-      <c r="S7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T7" t="s">
-        <v>235</v>
       </c>
       <c r="U7" t="s">
         <v>18</v>
@@ -4297,13 +4293,13 @@
         <v>26</v>
       </c>
       <c r="W7" t="s">
+        <v>219</v>
+      </c>
+      <c r="X7" t="s">
         <v>220</v>
       </c>
-      <c r="X7" t="s">
-        <v>221</v>
-      </c>
       <c r="Y7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/Digikey/Schottky-Diodes.xlsx
+++ b/Digikey/Schottky-Diodes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="240">
   <si>
     <t>ï»¿"Datasheets"</t>
   </si>
@@ -738,6 +738,9 @@
   </si>
   <si>
     <t>Device</t>
+  </si>
+  <si>
+    <t>SOD323</t>
   </si>
 </sst>
 </file>
@@ -816,8 +819,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -939,7 +946,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="119">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -997,6 +1004,8 @@
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1054,6 +1063,8 @@
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1520,7 +1531,7 @@
   <sheetViews>
     <sheetView topLeftCell="X1" workbookViewId="0">
       <pane xSplit="30300" topLeftCell="AC1"/>
-      <selection activeCell="AB1" sqref="AB1"/>
+      <selection activeCell="AB27" sqref="AB27"/>
       <selection pane="topRight" activeCell="AD388" sqref="AD388"/>
     </sheetView>
   </sheetViews>
@@ -3696,7 +3707,9 @@
         <v>21</v>
       </c>
       <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
+      <c r="AB27" t="s">
+        <v>239</v>
+      </c>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
@@ -3720,8 +3733,8 @@
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <pane xSplit="14340" topLeftCell="W1" activePane="topRight"/>
-      <selection activeCell="V3" sqref="V3"/>
+      <pane xSplit="14340" topLeftCell="W1"/>
+      <selection activeCell="AB7" sqref="AB7"/>
       <selection pane="topRight" activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
@@ -3990,6 +4003,9 @@
       <c r="Z3" t="s">
         <v>24</v>
       </c>
+      <c r="AB3" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" t="s">
@@ -4069,6 +4085,9 @@
       </c>
       <c r="Z4" t="s">
         <v>24</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:28">

--- a/Digikey/Schottky-Diodes.xlsx
+++ b/Digikey/Schottky-Diodes.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Stephen Deiss\Gadgetron\Gadgets\Libraries\Parts\Digikey\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="609" activeTab="2"/>
+    <workbookView xWindow="555" yWindow="555" windowWidth="25035" windowHeight="15495" tabRatio="609" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="5" r:id="rId1"/>
     <sheet name="SOD-323" sheetId="1" r:id="rId2"/>
     <sheet name="TH" sheetId="17" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="244">
   <si>
     <t>ï»¿"Datasheets"</t>
   </si>
@@ -158,9 +163,6 @@
     <t>Micro Commercial Co</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY 30V 200MA SOD323</t>
-  </si>
-  <si>
     <t>Schottky</t>
   </si>
   <si>
@@ -191,18 +193,12 @@
     <t>125Â°C (Max)</t>
   </si>
   <si>
-    <t>http://www.mccsemi.com/up_pdf/BAT42WS-BAT43WS(SOD323).pdf</t>
-  </si>
-  <si>
     <t>BAT43WSTPMSCT-ND</t>
   </si>
   <si>
     <t>BAT43WS-TP</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY 30V 100MA SOD323</t>
-  </si>
-  <si>
     <t>100mA</t>
   </si>
   <si>
@@ -227,9 +223,6 @@
     <t>RB751V-40-TP</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY 30V 30MA SOD323</t>
-  </si>
-  <si>
     <t>30mA</t>
   </si>
   <si>
@@ -248,9 +241,6 @@
     <t>RB500V-40-TP</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY 40V 100MA SOD323</t>
-  </si>
-  <si>
     <t>40V</t>
   </si>
   <si>
@@ -272,9 +262,6 @@
     <t>B5817WS-TP</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY 20V 1A SOD323</t>
-  </si>
-  <si>
     <t>1A</t>
   </si>
   <si>
@@ -299,9 +286,6 @@
     <t>RB551V-30-TP</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY 20V 500MA SOD323</t>
-  </si>
-  <si>
     <t>500mA</t>
   </si>
   <si>
@@ -332,27 +316,18 @@
     <t>B5818WS-TP</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY 30V 1A SOD323</t>
-  </si>
-  <si>
     <t>550mV @ 1A</t>
   </si>
   <si>
     <t>1mA @ 30V</t>
   </si>
   <si>
-    <t>http://www.mccsemi.com/up_pdf/B0530WS(SOD323).pdf</t>
-  </si>
-  <si>
     <t>B0530WS-TPMSCT-ND</t>
   </si>
   <si>
     <t>B0530WS-TP</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY 30V 500MA SOD323</t>
-  </si>
-  <si>
     <t>550mV @ 500mA</t>
   </si>
   <si>
@@ -365,9 +340,6 @@
     <t>B5819WS-TP</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY 40V 1A SOD323</t>
-  </si>
-  <si>
     <t>600mV @ 1A</t>
   </si>
   <si>
@@ -383,9 +355,6 @@
     <t>SD103AWS-TP</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY 40V 350MA SOD323</t>
-  </si>
-  <si>
     <t>350mA</t>
   </si>
   <si>
@@ -404,9 +373,6 @@
     <t>SD103BWS-TP</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY 30V 350MA SOD323</t>
-  </si>
-  <si>
     <t>5ÂµA @ 20V</t>
   </si>
   <si>
@@ -416,9 +382,6 @@
     <t>SD103CWS-TP</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY 20V 350MA SOD323</t>
-  </si>
-  <si>
     <t>5ÂµA @ 10V</t>
   </si>
   <si>
@@ -431,9 +394,6 @@
     <t>BSR106WS-TP</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY 60V 1A SOD323</t>
-  </si>
-  <si>
     <t>60V</t>
   </si>
   <si>
@@ -461,18 +421,12 @@
     <t>-55Â°C ~ 150Â°C</t>
   </si>
   <si>
-    <t>http://media.digikey.com/pdf/Data%20Sheets/Micro%20Commercial%20PDFs/MBRX02520-MBRX02560(SOD323).pdf</t>
-  </si>
-  <si>
     <t>MBRX02520TPMSCT-ND</t>
   </si>
   <si>
     <t>MBRX02520-TP</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY 20V 250MA SOD323</t>
-  </si>
-  <si>
     <t>250mA</t>
   </si>
   <si>
@@ -488,9 +442,6 @@
     <t>MBRX02530-TP</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY 30V 250MA SOD323</t>
-  </si>
-  <si>
     <t>550mV @ 250mA</t>
   </si>
   <si>
@@ -503,9 +454,6 @@
     <t>MBRX02540-TP</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY 40V 250MA SOD323</t>
-  </si>
-  <si>
     <t>500ÂµA @ 40V</t>
   </si>
   <si>
@@ -515,9 +463,6 @@
     <t>MBRX02550-TP</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY 50V 250MA SOD323</t>
-  </si>
-  <si>
     <t>700mV @ 250mA</t>
   </si>
   <si>
@@ -530,15 +475,9 @@
     <t>MBRX02560-TP</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY 60V 250MA SOD323</t>
-  </si>
-  <si>
     <t>500ÂµA @ 60V</t>
   </si>
   <si>
-    <t>http://media.digikey.com/pdf/Data%20Sheets/Micro%20Commercial%20PDFs/MBRX0520-MBRX0560(SOD323).pdf</t>
-  </si>
-  <si>
     <t>MBRX0520TPMSCT-ND</t>
   </si>
   <si>
@@ -563,9 +502,6 @@
     <t>MBRX0540-TP</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY 40V 500MA SOD323</t>
-  </si>
-  <si>
     <t>300ÂµA @ 40V</t>
   </si>
   <si>
@@ -575,9 +511,6 @@
     <t>MBRX0560-TP</t>
   </si>
   <si>
-    <t>DIODE SCHOTTKY 60V 500MA SOD323</t>
-  </si>
-  <si>
     <t>700mV @ 500mA</t>
   </si>
   <si>
@@ -740,7 +673,91 @@
     <t>Device</t>
   </si>
   <si>
-    <t>SOD323</t>
+    <t>SOD2512X100_HS</t>
+  </si>
+  <si>
+    <t>SOD3716X135_HS</t>
+  </si>
+  <si>
+    <t>DIOAD1125W78L520D270_HS</t>
+  </si>
+  <si>
+    <t>DIOAD2120W125L950D530_HS</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 30V 200MA SOD-323</t>
+  </si>
+  <si>
+    <t>http://www.mccsemi.com/up_pdf/BAT42WS-BAT43WS(SOD-323).pdf</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 30V 100MA SOD-323</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 30V 30MA SOD-323</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 40V 100MA SOD-323</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 20V 1A SOD-323</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 20V 500MA SOD-323</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 30V 1A SOD-323</t>
+  </si>
+  <si>
+    <t>http://www.mccsemi.com/up_pdf/B0530WS(SOD-323).pdf</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 30V 500MA SOD-323</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 40V 1A SOD-323</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 40V 350MA SOD-323</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 30V 350MA SOD-323</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 20V 350MA SOD-323</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 60V 1A SOD-323</t>
+  </si>
+  <si>
+    <t>http://media.digikey.com/pdf/Data%20Sheets/Micro%20Commercial%20PDFs/MBRX02520-MBRX02560(SOD-323).pdf</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 20V 250MA SOD-323</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 30V 250MA SOD-323</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 40V 250MA SOD-323</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 50V 250MA SOD-323</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 60V 250MA SOD-323</t>
+  </si>
+  <si>
+    <t>http://media.digikey.com/pdf/Data%20Sheets/Micro%20Commercial%20PDFs/MBRX0520-MBRX0560(SOD-323).pdf</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 40V 500MA SOD-323</t>
+  </si>
+  <si>
+    <t>DIODE SCHOTTKY 60V 500MA SOD-323</t>
+  </si>
+  <si>
+    <t>SOD-123</t>
   </si>
 </sst>
 </file>
@@ -940,11 +957,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="119">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1069,6 +1089,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1482,36 +1510,36 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="5" width="13.375" customWidth="1"/>
+    <col min="6" max="6" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
   </sheetData>
@@ -1529,40 +1557,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <pane xSplit="30300" topLeftCell="AC1"/>
-      <selection activeCell="AB27" sqref="AB27"/>
-      <selection pane="topRight" activeCell="AD388" sqref="AD388"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <pane xSplit="30300" topLeftCell="Y1" activePane="topRight"/>
+      <selection activeCell="X7" sqref="X7"/>
+      <selection pane="topRight" activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" customWidth="1"/>
-    <col min="15" max="15" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="19.375" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="12.875" customWidth="1"/>
+    <col min="15" max="15" width="29.375" customWidth="1"/>
     <col min="16" max="16" width="29" customWidth="1"/>
-    <col min="17" max="17" width="30.6640625" customWidth="1"/>
-    <col min="18" max="18" width="50.33203125" customWidth="1"/>
-    <col min="19" max="19" width="26.33203125" customWidth="1"/>
+    <col min="17" max="17" width="30.625" customWidth="1"/>
+    <col min="18" max="18" width="50.375" customWidth="1"/>
+    <col min="19" max="19" width="26.375" customWidth="1"/>
     <col min="20" max="20" width="29.5" customWidth="1"/>
     <col min="21" max="21" width="20" customWidth="1"/>
-    <col min="22" max="22" width="16.1640625" customWidth="1"/>
-    <col min="23" max="23" width="15.83203125" customWidth="1"/>
+    <col min="22" max="22" width="16.125" customWidth="1"/>
+    <col min="23" max="23" width="15.875" customWidth="1"/>
     <col min="24" max="24" width="23.5" customWidth="1"/>
-    <col min="25" max="25" width="31.33203125" customWidth="1"/>
-    <col min="26" max="30" width="11" customWidth="1"/>
+    <col min="25" max="25" width="31.375" customWidth="1"/>
+    <col min="26" max="26" width="10.875" customWidth="1"/>
+    <col min="27" max="27" width="18.125" customWidth="1"/>
+    <col min="28" max="30" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16" thickBot="1">
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1645,7 +1675,7 @@
         <v>22</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="AC1" t="s">
         <v>25</v>
@@ -1654,7 +1684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="16" thickTop="1">
+    <row r="2" spans="1:30" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1671,7 +1701,7 @@
         <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>219</v>
       </c>
       <c r="G2">
         <v>50688</v>
@@ -1695,25 +1725,25 @@
         <v>18</v>
       </c>
       <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
         <v>46</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>47</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>49</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>50</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>51</v>
-      </c>
-      <c r="T2" t="s">
-        <v>52</v>
       </c>
       <c r="U2" t="s">
         <v>18</v>
@@ -1722,36 +1752,42 @@
         <v>27</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
         <v>54</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>55</v>
       </c>
       <c r="Z2" t="s">
         <v>23</v>
       </c>
+      <c r="AA2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c r="G3">
         <v>9495</v>
@@ -1775,25 +1811,25 @@
         <v>18</v>
       </c>
       <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" t="s">
         <v>46</v>
       </c>
-      <c r="O3" t="s">
-        <v>47</v>
-      </c>
       <c r="P3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" t="s">
         <v>50</v>
       </c>
-      <c r="S3" t="s">
-        <v>51</v>
-      </c>
       <c r="T3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
         <v>18</v>
@@ -1802,10 +1838,10 @@
         <v>27</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y3" t="s">
         <v>17</v>
@@ -1813,25 +1849,31 @@
       <c r="Z3" t="s">
         <v>23</v>
       </c>
+      <c r="AA3" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c r="G4">
         <v>9084</v>
@@ -1855,25 +1897,25 @@
         <v>18</v>
       </c>
       <c r="N4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" t="s">
         <v>46</v>
       </c>
-      <c r="O4" t="s">
-        <v>47</v>
-      </c>
       <c r="P4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" t="s">
         <v>50</v>
       </c>
-      <c r="S4" t="s">
-        <v>51</v>
-      </c>
       <c r="T4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U4" t="s">
         <v>18</v>
@@ -1882,10 +1924,10 @@
         <v>27</v>
       </c>
       <c r="W4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y4" t="s">
         <v>17</v>
@@ -1893,25 +1935,31 @@
       <c r="Z4" t="s">
         <v>23</v>
       </c>
+      <c r="AA4" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>222</v>
       </c>
       <c r="G5">
         <v>7238</v>
@@ -1935,63 +1983,69 @@
         <v>18</v>
       </c>
       <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
         <v>46</v>
       </c>
-      <c r="O5" t="s">
-        <v>47</v>
-      </c>
       <c r="P5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="R5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S5" t="s">
         <v>18</v>
       </c>
       <c r="T5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="V5" t="s">
         <v>27</v>
       </c>
       <c r="W5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y5" t="s">
         <v>54</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>55</v>
       </c>
       <c r="Z5" t="s">
         <v>23</v>
       </c>
+      <c r="AA5" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="G6">
         <v>9527</v>
@@ -2015,63 +2069,69 @@
         <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="R6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S6" t="s">
         <v>18</v>
       </c>
       <c r="T6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s">
         <v>27</v>
       </c>
       <c r="W6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y6" t="s">
         <v>54</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>55</v>
       </c>
       <c r="Z6" t="s">
         <v>23</v>
       </c>
+      <c r="AA6" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="G7">
         <v>22636</v>
@@ -2095,25 +2155,25 @@
         <v>18</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O7" t="s">
         <v>19</v>
       </c>
       <c r="P7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="R7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s">
         <v>18</v>
       </c>
       <c r="T7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="U7" t="s">
         <v>18</v>
@@ -2122,36 +2182,42 @@
         <v>27</v>
       </c>
       <c r="W7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="Z7" t="s">
         <v>23</v>
       </c>
+      <c r="AA7" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="G8">
         <v>15634</v>
@@ -2175,25 +2241,25 @@
         <v>18</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O8" t="s">
         <v>19</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="Q8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="R8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s">
         <v>18</v>
       </c>
       <c r="T8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="U8" t="s">
         <v>18</v>
@@ -2202,36 +2268,42 @@
         <v>27</v>
       </c>
       <c r="W8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y8" t="s">
         <v>54</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>55</v>
       </c>
       <c r="Z8" t="s">
         <v>23</v>
       </c>
+      <c r="AA8" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="G9">
         <v>13747</v>
@@ -2255,63 +2327,69 @@
         <v>18</v>
       </c>
       <c r="N9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="R9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S9" t="s">
         <v>18</v>
       </c>
       <c r="T9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="U9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s">
         <v>27</v>
       </c>
       <c r="W9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y9" t="s">
         <v>54</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>55</v>
       </c>
       <c r="Z9" t="s">
         <v>23</v>
       </c>
+      <c r="AA9" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>226</v>
       </c>
       <c r="G10">
         <v>369</v>
@@ -2335,25 +2413,25 @@
         <v>18</v>
       </c>
       <c r="N10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" t="s">
         <v>46</v>
       </c>
-      <c r="O10" t="s">
-        <v>47</v>
-      </c>
       <c r="P10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="R10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s">
         <v>18</v>
       </c>
       <c r="T10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="U10" t="s">
         <v>18</v>
@@ -2362,36 +2440,42 @@
         <v>27</v>
       </c>
       <c r="W10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="Z10" t="s">
         <v>23</v>
       </c>
+      <c r="AA10" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="G11">
         <v>1534</v>
@@ -2415,25 +2499,25 @@
         <v>18</v>
       </c>
       <c r="N11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" t="s">
         <v>46</v>
       </c>
-      <c r="O11" t="s">
-        <v>47</v>
-      </c>
       <c r="P11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="Q11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="R11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s">
         <v>18</v>
       </c>
       <c r="T11" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="U11" t="s">
         <v>18</v>
@@ -2442,10 +2526,10 @@
         <v>27</v>
       </c>
       <c r="W11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y11" t="s">
         <v>17</v>
@@ -2453,25 +2537,31 @@
       <c r="Z11" t="s">
         <v>23</v>
       </c>
+      <c r="AA11" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>229</v>
       </c>
       <c r="G12">
         <v>87700</v>
@@ -2495,25 +2585,25 @@
         <v>18</v>
       </c>
       <c r="N12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="R12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s">
         <v>18</v>
       </c>
       <c r="T12" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="U12" t="s">
         <v>18</v>
@@ -2522,36 +2612,42 @@
         <v>27</v>
       </c>
       <c r="W12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="Z12" t="s">
         <v>23</v>
       </c>
+      <c r="AA12" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="G13">
         <v>27557</v>
@@ -2575,25 +2671,25 @@
         <v>18</v>
       </c>
       <c r="N13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P13" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="Q13" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="R13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="T13" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="U13" t="s">
         <v>18</v>
@@ -2602,36 +2698,42 @@
         <v>27</v>
       </c>
       <c r="W13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y13" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="Z13" t="s">
         <v>23</v>
       </c>
+      <c r="AA13" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>231</v>
       </c>
       <c r="G14">
         <v>20633</v>
@@ -2655,25 +2757,25 @@
         <v>18</v>
       </c>
       <c r="N14" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" t="s">
         <v>46</v>
       </c>
-      <c r="O14" t="s">
-        <v>47</v>
-      </c>
       <c r="P14" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="Q14" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="R14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="T14" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="U14" t="s">
         <v>18</v>
@@ -2682,36 +2784,42 @@
         <v>27</v>
       </c>
       <c r="W14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="Z14" t="s">
         <v>23</v>
       </c>
+      <c r="AA14" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2735,25 +2843,25 @@
         <v>18</v>
       </c>
       <c r="N15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" t="s">
         <v>19</v>
       </c>
       <c r="P15" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="Q15" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="R15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="T15" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="U15" t="s">
         <v>18</v>
@@ -2762,36 +2870,42 @@
         <v>27</v>
       </c>
       <c r="W15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="Z15" t="s">
         <v>23</v>
       </c>
+      <c r="AA15" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="G16">
         <v>2532</v>
@@ -2815,25 +2929,25 @@
         <v>18</v>
       </c>
       <c r="N16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="P16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q16" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="R16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s">
         <v>18</v>
       </c>
       <c r="T16" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="U16" t="s">
         <v>18</v>
@@ -2842,36 +2956,42 @@
         <v>27</v>
       </c>
       <c r="W16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="Z16" t="s">
         <v>23</v>
       </c>
+      <c r="AA16" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c r="G17">
         <v>47530</v>
@@ -2895,25 +3015,25 @@
         <v>18</v>
       </c>
       <c r="N17" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" t="s">
         <v>46</v>
       </c>
-      <c r="O17" t="s">
-        <v>47</v>
-      </c>
       <c r="P17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q17" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="R17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S17" t="s">
         <v>18</v>
       </c>
       <c r="T17" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="U17" t="s">
         <v>18</v>
@@ -2922,36 +3042,42 @@
         <v>27</v>
       </c>
       <c r="W17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y17" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="Z17" t="s">
         <v>23</v>
       </c>
+      <c r="AA17" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>234</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E18" t="s">
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2975,25 +3101,25 @@
         <v>18</v>
       </c>
       <c r="N18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O18" t="s">
         <v>19</v>
       </c>
       <c r="P18" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q18" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="R18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S18" t="s">
         <v>18</v>
       </c>
       <c r="T18" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="U18" t="s">
         <v>18</v>
@@ -3002,33 +3128,39 @@
         <v>27</v>
       </c>
       <c r="W18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y18" t="s">
-        <v>145</v>
+        <v>130</v>
+      </c>
+      <c r="AA18" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>234</v>
       </c>
       <c r="B19" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D19" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="E19" t="s">
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3052,25 +3184,25 @@
         <v>18</v>
       </c>
       <c r="N19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" t="s">
         <v>46</v>
       </c>
-      <c r="O19" t="s">
-        <v>47</v>
-      </c>
       <c r="P19" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q19" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="R19" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S19" t="s">
         <v>18</v>
       </c>
       <c r="T19" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="U19" t="s">
         <v>18</v>
@@ -3079,33 +3211,39 @@
         <v>27</v>
       </c>
       <c r="W19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y19" t="s">
-        <v>145</v>
+        <v>130</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E20" t="s">
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3129,25 +3267,25 @@
         <v>18</v>
       </c>
       <c r="N20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O20" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P20" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q20" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="R20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S20" t="s">
         <v>18</v>
       </c>
       <c r="T20" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="U20" t="s">
         <v>18</v>
@@ -3156,33 +3294,39 @@
         <v>27</v>
       </c>
       <c r="W20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y20" t="s">
-        <v>145</v>
+        <v>130</v>
+      </c>
+      <c r="AA20" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E21" t="s">
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>238</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3206,25 +3350,25 @@
         <v>18</v>
       </c>
       <c r="N21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O21" t="s">
         <v>16</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q21" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="R21" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S21" t="s">
         <v>18</v>
       </c>
       <c r="T21" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="U21" t="s">
         <v>18</v>
@@ -3233,33 +3377,39 @@
         <v>27</v>
       </c>
       <c r="W21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y21" t="s">
-        <v>145</v>
+        <v>130</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>146</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="E22" t="s">
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3283,25 +3433,25 @@
         <v>18</v>
       </c>
       <c r="N22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O22" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="P22" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q22" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="R22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s">
         <v>18</v>
       </c>
       <c r="T22" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="U22" t="s">
         <v>18</v>
@@ -3310,33 +3460,39 @@
         <v>27</v>
       </c>
       <c r="W22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y22" t="s">
-        <v>145</v>
+        <v>130</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="E23" t="s">
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -3360,25 +3516,25 @@
         <v>18</v>
       </c>
       <c r="N23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O23" t="s">
         <v>19</v>
       </c>
       <c r="P23" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="Q23" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="R23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s">
         <v>18</v>
       </c>
       <c r="T23" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="U23" t="s">
         <v>18</v>
@@ -3387,33 +3543,39 @@
         <v>27</v>
       </c>
       <c r="W23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y23" t="s">
         <v>17</v>
       </c>
+      <c r="AA23" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="D24" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="E24" t="s">
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3437,25 +3599,25 @@
         <v>18</v>
       </c>
       <c r="N24" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" t="s">
         <v>46</v>
       </c>
-      <c r="O24" t="s">
-        <v>47</v>
-      </c>
       <c r="P24" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="Q24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="R24" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s">
         <v>18</v>
       </c>
       <c r="T24" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="U24" t="s">
         <v>18</v>
@@ -3464,33 +3626,39 @@
         <v>27</v>
       </c>
       <c r="W24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y24" t="s">
         <v>17</v>
       </c>
+      <c r="AA24" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="D25" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E25" t="s">
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3514,25 +3682,25 @@
         <v>18</v>
       </c>
       <c r="N25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P25" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="Q25" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="R25" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s">
         <v>18</v>
       </c>
       <c r="T25" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="U25" t="s">
         <v>18</v>
@@ -3541,33 +3709,39 @@
         <v>27</v>
       </c>
       <c r="W25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y25" t="s">
         <v>17</v>
       </c>
+      <c r="AA25" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="E26" t="s">
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3591,25 +3765,25 @@
         <v>18</v>
       </c>
       <c r="N26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O26" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="P26" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="Q26" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="R26" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S26" t="s">
         <v>18</v>
       </c>
       <c r="T26" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="U26" t="s">
         <v>18</v>
@@ -3618,33 +3792,39 @@
         <v>27</v>
       </c>
       <c r="W26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="X26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y26" t="s">
         <v>17</v>
       </c>
+      <c r="AA26" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="G27" s="1">
         <v>46290</v>
@@ -3668,25 +3848,25 @@
         <v>18</v>
       </c>
       <c r="N27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P27" s="1" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>18</v>
@@ -3695,20 +3875,22 @@
         <v>27</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AA27" s="1"/>
+      <c r="AA27" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="AB27" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
@@ -3716,9 +3898,9 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3732,36 +3914,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <pane xSplit="14340" topLeftCell="W1"/>
-      <selection activeCell="AB7" sqref="AB7"/>
-      <selection pane="topRight" activeCell="AB1" sqref="AB1"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <pane xSplit="14340" topLeftCell="V1" activePane="topRight"/>
+      <selection activeCell="AA4" sqref="AA4"/>
+      <selection pane="topRight" activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="3" max="4" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="3" max="4" width="21.375" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1"/>
-    <col min="9" max="10" width="4.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="4.625" customWidth="1"/>
+    <col min="9" max="10" width="4.875" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" customWidth="1"/>
-    <col min="13" max="13" width="3.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="13" width="3.875" customWidth="1"/>
     <col min="15" max="15" width="9.5" customWidth="1"/>
-    <col min="16" max="16" width="11.83203125" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
     <col min="17" max="17" width="15.5" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="20" max="20" width="23.6640625" customWidth="1"/>
+    <col min="20" max="20" width="23.625" customWidth="1"/>
     <col min="21" max="21" width="23" customWidth="1"/>
-    <col min="22" max="22" width="15.83203125" customWidth="1"/>
+    <col min="22" max="22" width="15.875" customWidth="1"/>
     <col min="23" max="23" width="23.5" customWidth="1"/>
-    <col min="24" max="24" width="17.33203125" customWidth="1"/>
+    <col min="24" max="24" width="17.375" customWidth="1"/>
+    <col min="27" max="27" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16" thickBot="1">
+    <row r="1" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3844,27 +4027,27 @@
         <v>22</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="16" thickTop="1">
+    <row r="2" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="G2">
         <v>25698</v>
@@ -3888,25 +4071,25 @@
         <v>18</v>
       </c>
       <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
         <v>46</v>
       </c>
-      <c r="O2" t="s">
-        <v>47</v>
-      </c>
       <c r="P2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q2" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="R2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s">
         <v>18</v>
       </c>
       <c r="T2" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="U2" t="s">
         <v>18</v>
@@ -3915,33 +4098,39 @@
         <v>26</v>
       </c>
       <c r="W2" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="X2" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="Y2" t="s">
-        <v>207</v>
+        <v>183</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="F3" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="G3">
         <v>10410</v>
@@ -3965,25 +4154,25 @@
         <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="R3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s">
         <v>18</v>
       </c>
       <c r="T3" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="U3" t="s">
         <v>18</v>
@@ -3992,39 +4181,42 @@
         <v>26</v>
       </c>
       <c r="W3" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="X3" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="Y3" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="Z3" t="s">
         <v>24</v>
       </c>
+      <c r="AA3" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="AB3" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="G4">
         <v>3784</v>
@@ -4048,25 +4240,25 @@
         <v>18</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="Q4" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="R4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s">
         <v>18</v>
       </c>
       <c r="T4" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="U4" t="s">
         <v>18</v>
@@ -4075,39 +4267,42 @@
         <v>26</v>
       </c>
       <c r="W4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="X4" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="Y4" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="Z4" t="s">
         <v>24</v>
       </c>
+      <c r="AA4" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="AB4" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="E5" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="F5" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="G5">
         <v>229</v>
@@ -4131,25 +4326,25 @@
         <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="Q5" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="R5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s">
         <v>18</v>
       </c>
       <c r="T5" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="U5" t="s">
         <v>18</v>
@@ -4158,33 +4353,39 @@
         <v>26</v>
       </c>
       <c r="W5" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="X5" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="Y5" t="s">
-        <v>207</v>
+        <v>183</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="E6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" t="s">
         <v>202</v>
-      </c>
-      <c r="F6" t="s">
-        <v>226</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4208,25 +4409,25 @@
         <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O6" t="s">
         <v>19</v>
       </c>
       <c r="P6" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="Q6" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="R6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s">
         <v>18</v>
       </c>
       <c r="T6" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="U6" t="s">
         <v>18</v>
@@ -4235,33 +4436,39 @@
         <v>26</v>
       </c>
       <c r="W6" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="X6" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="Y6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="A7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" t="s">
-        <v>231</v>
-      </c>
       <c r="E7" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="F7" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4285,25 +4492,25 @@
         <v>18</v>
       </c>
       <c r="N7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" t="s">
         <v>46</v>
       </c>
-      <c r="O7" t="s">
-        <v>47</v>
-      </c>
       <c r="P7" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="Q7" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="R7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s">
         <v>18</v>
       </c>
       <c r="T7" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="U7" t="s">
         <v>18</v>
@@ -4312,21 +4519,27 @@
         <v>26</v>
       </c>
       <c r="W7" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="X7" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="Y7" t="s">
-        <v>207</v>
+        <v>183</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Digikey/Schottky-Diodes.xlsx
+++ b/Digikey/Schottky-Diodes.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Stephen Deiss\Gadgetron\Gadgets\Libraries\Parts\Digikey\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="555" yWindow="555" windowWidth="25035" windowHeight="15495" tabRatio="609" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25540" windowHeight="31460" tabRatio="609" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="5" r:id="rId1"/>
     <sheet name="SOD-323" sheetId="1" r:id="rId2"/>
     <sheet name="TH" sheetId="17" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="247">
   <si>
     <t>ï»¿"Datasheets"</t>
   </si>
@@ -757,7 +752,16 @@
     <t>DIODE SCHOTTKY 60V 500MA SOD-323</t>
   </si>
   <si>
-    <t>SOD-123</t>
+    <t>TH-DO-41-AND-DO-204AL</t>
+  </si>
+  <si>
+    <t>SMD-SOD123</t>
+  </si>
+  <si>
+    <t>TH-DO-201AD</t>
+  </si>
+  <si>
+    <t>SMD-SOD323</t>
   </si>
 </sst>
 </file>
@@ -836,8 +840,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="119">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -966,7 +980,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="119">
+  <cellStyles count="129">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1026,6 +1040,11 @@
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1085,6 +1104,11 @@
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1510,20 +1534,20 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="5" width="13.375" customWidth="1"/>
-    <col min="6" max="6" width="25.375" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
@@ -1531,7 +1555,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1539,7 +1563,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="2"/>
     </row>
   </sheetData>
@@ -1557,42 +1581,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane xSplit="30300" topLeftCell="Y1" activePane="topRight"/>
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <pane xSplit="30300" topLeftCell="Y1"/>
+      <selection activeCell="AA35" sqref="AA35"/>
       <selection pane="topRight" activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
-    <col min="9" max="9" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="19.375" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="12.875" customWidth="1"/>
-    <col min="15" max="15" width="29.375" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" customWidth="1"/>
+    <col min="15" max="15" width="29.33203125" customWidth="1"/>
     <col min="16" max="16" width="29" customWidth="1"/>
-    <col min="17" max="17" width="30.625" customWidth="1"/>
-    <col min="18" max="18" width="50.375" customWidth="1"/>
-    <col min="19" max="19" width="26.375" customWidth="1"/>
+    <col min="17" max="17" width="30.6640625" customWidth="1"/>
+    <col min="18" max="18" width="50.33203125" customWidth="1"/>
+    <col min="19" max="19" width="26.33203125" customWidth="1"/>
     <col min="20" max="20" width="29.5" customWidth="1"/>
     <col min="21" max="21" width="20" customWidth="1"/>
-    <col min="22" max="22" width="16.125" customWidth="1"/>
-    <col min="23" max="23" width="15.875" customWidth="1"/>
+    <col min="22" max="22" width="16.1640625" customWidth="1"/>
+    <col min="23" max="23" width="15.83203125" customWidth="1"/>
     <col min="24" max="24" width="23.5" customWidth="1"/>
-    <col min="25" max="25" width="31.375" customWidth="1"/>
-    <col min="26" max="26" width="10.875" customWidth="1"/>
-    <col min="27" max="27" width="18.125" customWidth="1"/>
+    <col min="25" max="25" width="31.33203125" customWidth="1"/>
+    <col min="26" max="26" width="10.83203125" customWidth="1"/>
+    <col min="27" max="27" width="24" customWidth="1"/>
     <col min="28" max="30" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1708,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="16" thickTop="1">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1767,10 +1791,10 @@
         <v>215</v>
       </c>
       <c r="AB2" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
         <v>220</v>
       </c>
@@ -1853,10 +1877,10 @@
         <v>215</v>
       </c>
       <c r="AB3" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
         <v>220</v>
       </c>
@@ -1939,10 +1963,10 @@
         <v>215</v>
       </c>
       <c r="AB4" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -2025,10 +2049,10 @@
         <v>215</v>
       </c>
       <c r="AB5" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -2111,10 +2135,10 @@
         <v>215</v>
       </c>
       <c r="AB6" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -2197,10 +2221,10 @@
         <v>215</v>
       </c>
       <c r="AB7" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -2283,10 +2307,10 @@
         <v>215</v>
       </c>
       <c r="AB8" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -2369,10 +2393,10 @@
         <v>215</v>
       </c>
       <c r="AB9" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -2455,10 +2479,10 @@
         <v>215</v>
       </c>
       <c r="AB10" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
         <v>227</v>
       </c>
@@ -2541,10 +2565,10 @@
         <v>215</v>
       </c>
       <c r="AB11" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -2627,10 +2651,10 @@
         <v>215</v>
       </c>
       <c r="AB12" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -2713,10 +2737,10 @@
         <v>215</v>
       </c>
       <c r="AB13" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -2799,10 +2823,10 @@
         <v>215</v>
       </c>
       <c r="AB14" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -2885,10 +2909,10 @@
         <v>215</v>
       </c>
       <c r="AB15" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -2971,10 +2995,10 @@
         <v>215</v>
       </c>
       <c r="AB16" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -3057,10 +3081,10 @@
         <v>215</v>
       </c>
       <c r="AB17" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
         <v>234</v>
       </c>
@@ -3140,10 +3164,10 @@
         <v>215</v>
       </c>
       <c r="AB18" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
         <v>234</v>
       </c>
@@ -3223,10 +3247,10 @@
         <v>215</v>
       </c>
       <c r="AB19" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
         <v>234</v>
       </c>
@@ -3306,10 +3330,10 @@
         <v>215</v>
       </c>
       <c r="AB20" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
         <v>234</v>
       </c>
@@ -3389,10 +3413,10 @@
         <v>215</v>
       </c>
       <c r="AB21" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
         <v>234</v>
       </c>
@@ -3472,10 +3496,10 @@
         <v>215</v>
       </c>
       <c r="AB22" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
         <v>240</v>
       </c>
@@ -3555,10 +3579,10 @@
         <v>215</v>
       </c>
       <c r="AB23" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
         <v>240</v>
       </c>
@@ -3638,10 +3662,10 @@
         <v>215</v>
       </c>
       <c r="AB24" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
         <v>240</v>
       </c>
@@ -3721,10 +3745,10 @@
         <v>215</v>
       </c>
       <c r="AB25" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
         <v>240</v>
       </c>
@@ -3804,10 +3828,10 @@
         <v>215</v>
       </c>
       <c r="AB26" t="s">
-        <v>53</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
         <v>163</v>
       </c>
@@ -3890,7 +3914,7 @@
         <v>216</v>
       </c>
       <c r="AB27" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
@@ -3898,9 +3922,9 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3915,36 +3939,36 @@
   <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <pane xSplit="14340" topLeftCell="V1" activePane="topRight"/>
+      <pane xSplit="14340" topLeftCell="Y1" activePane="topRight"/>
       <selection activeCell="AA4" sqref="AA4"/>
-      <selection pane="topRight" activeCell="AA10" sqref="AA10"/>
+      <selection pane="topRight" activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="3" max="4" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="3" max="4" width="21.33203125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="4.625" customWidth="1"/>
-    <col min="9" max="10" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
+    <col min="9" max="10" width="4.83203125" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="13" width="3.875" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" customWidth="1"/>
+    <col min="13" max="13" width="3.83203125" customWidth="1"/>
     <col min="15" max="15" width="9.5" customWidth="1"/>
-    <col min="16" max="16" width="11.875" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" customWidth="1"/>
     <col min="17" max="17" width="15.5" customWidth="1"/>
     <col min="18" max="18" width="14" customWidth="1"/>
-    <col min="20" max="20" width="23.625" customWidth="1"/>
+    <col min="20" max="20" width="23.6640625" customWidth="1"/>
     <col min="21" max="21" width="23" customWidth="1"/>
-    <col min="22" max="22" width="15.875" customWidth="1"/>
+    <col min="22" max="22" width="15.83203125" customWidth="1"/>
     <col min="23" max="23" width="23.5" customWidth="1"/>
-    <col min="24" max="24" width="17.375" customWidth="1"/>
-    <col min="27" max="27" width="26" customWidth="1"/>
+    <col min="24" max="24" width="17.33203125" customWidth="1"/>
+    <col min="27" max="27" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="16" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4030,7 +4054,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="16" thickTop="1">
       <c r="A2" t="s">
         <v>174</v>
       </c>
@@ -4110,10 +4134,10 @@
         <v>217</v>
       </c>
       <c r="AB2" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>174</v>
       </c>
@@ -4196,10 +4220,10 @@
         <v>217</v>
       </c>
       <c r="AB3" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -4282,10 +4306,10 @@
         <v>218</v>
       </c>
       <c r="AB4" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -4365,10 +4389,10 @@
         <v>218</v>
       </c>
       <c r="AB5" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>199</v>
       </c>
@@ -4448,10 +4472,10 @@
         <v>218</v>
       </c>
       <c r="AB6" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>199</v>
       </c>
@@ -4531,15 +4555,15 @@
         <v>218</v>
       </c>
       <c r="AB7" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Digikey/Schottky-Diodes.xlsx
+++ b/Digikey/Schottky-Diodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25540" windowHeight="31460" tabRatio="609" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25540" windowHeight="31460" tabRatio="609" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="5" r:id="rId1"/>
@@ -23,9 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="247">
   <si>
-    <t>ï»¿"Datasheets"</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -762,6 +759,9 @@
   </si>
   <si>
     <t>SMD-SOD323</t>
+  </si>
+  <si>
+    <t>Datasheets</t>
   </si>
 </sst>
 </file>
@@ -820,7 +820,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -839,6 +839,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -971,7 +982,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -979,6 +990,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="129">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1131,7 +1143,7 @@
     <sortCondition ref="Q1:Q26"/>
   </sortState>
   <tableColumns count="30">
-    <tableColumn id="1" name="ï»¿&quot;Datasheets&quot;"/>
+    <tableColumn id="1" name="Datasheets"/>
     <tableColumn id="2" name="Image"/>
     <tableColumn id="3" name="Digi-Key Part Number"/>
     <tableColumn id="4" name="Manufacturer Part Number"/>
@@ -1173,7 +1185,7 @@
     <sortCondition ref="N1:N77"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" name="ï»¿&quot;Datasheets&quot;"/>
+    <tableColumn id="1" name="Datasheets"/>
     <tableColumn id="2" name="Image"/>
     <tableColumn id="3" name="Digi-Key Part Number"/>
     <tableColumn id="37" name="Manufacturer Part Number"/>
@@ -1544,23 +1556,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1581,9 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="30300" topLeftCell="Y1"/>
-      <selection activeCell="AA35" sqref="AA35"/>
       <selection pane="topRight" activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
@@ -1617,115 +1628,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16" thickBot="1">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" t="s">
         <v>38</v>
       </c>
-      <c r="V1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>39</v>
-      </c>
       <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>25</v>
-      </c>
       <c r="AD1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="16" thickTop="1">
       <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G2">
         <v>50688</v>
@@ -1743,75 +1754,75 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" t="s">
         <v>45</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>46</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>48</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>49</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>50</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" t="s">
         <v>51</v>
       </c>
-      <c r="U2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>52</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>53</v>
       </c>
-      <c r="Y2" t="s">
-        <v>54</v>
-      </c>
       <c r="Z2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
         <v>220</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>221</v>
       </c>
       <c r="G3">
         <v>9495</v>
@@ -1829,75 +1840,75 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" t="s">
         <v>45</v>
       </c>
-      <c r="O3" t="s">
-        <v>46</v>
-      </c>
       <c r="P3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" t="s">
         <v>58</v>
       </c>
-      <c r="R3" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" t="s">
-        <v>50</v>
-      </c>
-      <c r="T3" t="s">
-        <v>59</v>
-      </c>
       <c r="U3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" t="s">
         <v>52</v>
       </c>
-      <c r="X3" t="s">
-        <v>53</v>
-      </c>
       <c r="Y3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
         <v>220</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" t="s">
-        <v>221</v>
       </c>
       <c r="G4">
         <v>9084</v>
@@ -1915,75 +1926,75 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
         <v>45</v>
       </c>
-      <c r="O4" t="s">
-        <v>46</v>
-      </c>
       <c r="P4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" t="s">
         <v>58</v>
       </c>
-      <c r="R4" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" t="s">
-        <v>50</v>
-      </c>
-      <c r="T4" t="s">
-        <v>59</v>
-      </c>
       <c r="U4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X4" t="s">
         <v>52</v>
       </c>
-      <c r="X4" t="s">
-        <v>53</v>
-      </c>
       <c r="Y4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
         <v>62</v>
       </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>63</v>
       </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G5">
         <v>7238</v>
@@ -2001,75 +2012,75 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="s">
-        <v>46</v>
-      </c>
       <c r="P5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" t="s">
         <v>66</v>
       </c>
-      <c r="R5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W5" t="s">
         <v>51</v>
       </c>
-      <c r="U5" t="s">
-        <v>67</v>
-      </c>
-      <c r="V5" t="s">
-        <v>27</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>52</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>53</v>
       </c>
-      <c r="Y5" t="s">
-        <v>54</v>
-      </c>
       <c r="Z5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
         <v>68</v>
       </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>69</v>
       </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G6">
         <v>9527</v>
@@ -2087,75 +2098,75 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" t="s">
         <v>71</v>
       </c>
-      <c r="P6" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" t="s">
         <v>72</v>
       </c>
-      <c r="R6" t="s">
-        <v>49</v>
-      </c>
-      <c r="S6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>73</v>
       </c>
-      <c r="U6" t="s">
-        <v>74</v>
-      </c>
       <c r="V6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W6" t="s">
+        <v>51</v>
+      </c>
+      <c r="X6" t="s">
         <v>52</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>53</v>
       </c>
-      <c r="Y6" t="s">
-        <v>54</v>
-      </c>
       <c r="Z6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
         <v>75</v>
       </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>76</v>
       </c>
-      <c r="D7" t="s">
-        <v>77</v>
-      </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G7">
         <v>22636</v>
@@ -2173,75 +2184,75 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" t="s">
         <v>18</v>
       </c>
-      <c r="N7" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" t="s">
-        <v>19</v>
-      </c>
       <c r="P7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>79</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" t="s">
         <v>80</v>
       </c>
-      <c r="S7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
+        <v>17</v>
+      </c>
+      <c r="V7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y7" t="s">
         <v>81</v>
       </c>
-      <c r="U7" t="s">
-        <v>18</v>
-      </c>
-      <c r="V7" t="s">
-        <v>27</v>
-      </c>
-      <c r="W7" t="s">
-        <v>52</v>
-      </c>
-      <c r="X7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>82</v>
-      </c>
       <c r="Z7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
         <v>83</v>
       </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>84</v>
       </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G8">
         <v>15634</v>
@@ -2259,75 +2270,75 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" t="s">
         <v>18</v>
       </c>
-      <c r="N8" t="s">
-        <v>45</v>
-      </c>
-      <c r="O8" t="s">
-        <v>19</v>
-      </c>
       <c r="P8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" t="s">
         <v>86</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
+        <v>79</v>
+      </c>
+      <c r="S8" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" t="s">
         <v>87</v>
       </c>
-      <c r="R8" t="s">
-        <v>80</v>
-      </c>
-      <c r="S8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T8" t="s">
-        <v>88</v>
-      </c>
       <c r="U8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W8" t="s">
+        <v>51</v>
+      </c>
+      <c r="X8" t="s">
         <v>52</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>53</v>
       </c>
-      <c r="Y8" t="s">
-        <v>54</v>
-      </c>
       <c r="Z8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
         <v>89</v>
       </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>90</v>
       </c>
-      <c r="D9" t="s">
-        <v>91</v>
-      </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G9">
         <v>13747</v>
@@ -2345,75 +2356,75 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9" t="s">
+        <v>91</v>
+      </c>
+      <c r="R9" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" t="s">
         <v>92</v>
       </c>
-      <c r="R9" t="s">
-        <v>49</v>
-      </c>
-      <c r="S9" t="s">
-        <v>18</v>
-      </c>
-      <c r="T9" t="s">
-        <v>93</v>
-      </c>
       <c r="U9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W9" t="s">
+        <v>51</v>
+      </c>
+      <c r="X9" t="s">
         <v>52</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>53</v>
       </c>
-      <c r="Y9" t="s">
-        <v>54</v>
-      </c>
       <c r="Z9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" t="s">
         <v>94</v>
       </c>
-      <c r="D10" t="s">
-        <v>95</v>
-      </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G10">
         <v>369</v>
@@ -2431,75 +2442,75 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" t="s">
         <v>45</v>
       </c>
-      <c r="O10" t="s">
-        <v>46</v>
-      </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q10" t="s">
+        <v>95</v>
+      </c>
+      <c r="R10" t="s">
+        <v>79</v>
+      </c>
+      <c r="S10" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" t="s">
         <v>96</v>
       </c>
-      <c r="R10" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" t="s">
-        <v>18</v>
-      </c>
-      <c r="T10" t="s">
-        <v>97</v>
-      </c>
       <c r="U10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W10" t="s">
+        <v>51</v>
+      </c>
+      <c r="X10" t="s">
         <v>52</v>
       </c>
-      <c r="X10" t="s">
-        <v>53</v>
-      </c>
       <c r="Y10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
         <v>227</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>228</v>
       </c>
       <c r="G11">
         <v>1534</v>
@@ -2517,75 +2528,75 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" t="s">
         <v>45</v>
       </c>
-      <c r="O11" t="s">
-        <v>46</v>
-      </c>
       <c r="P11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q11" t="s">
+        <v>99</v>
+      </c>
+      <c r="R11" t="s">
+        <v>79</v>
+      </c>
+      <c r="S11" t="s">
+        <v>17</v>
+      </c>
+      <c r="T11" t="s">
         <v>100</v>
       </c>
-      <c r="R11" t="s">
-        <v>80</v>
-      </c>
-      <c r="S11" t="s">
-        <v>18</v>
-      </c>
-      <c r="T11" t="s">
-        <v>101</v>
-      </c>
       <c r="U11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W11" t="s">
+        <v>51</v>
+      </c>
+      <c r="X11" t="s">
         <v>52</v>
       </c>
-      <c r="X11" t="s">
-        <v>53</v>
-      </c>
       <c r="Y11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" t="s">
         <v>102</v>
       </c>
-      <c r="D12" t="s">
-        <v>103</v>
-      </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G12">
         <v>87700</v>
@@ -2603,75 +2614,75 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q12" t="s">
+        <v>103</v>
+      </c>
+      <c r="R12" t="s">
+        <v>79</v>
+      </c>
+      <c r="S12" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" t="s">
         <v>104</v>
       </c>
-      <c r="R12" t="s">
-        <v>80</v>
-      </c>
-      <c r="S12" t="s">
-        <v>18</v>
-      </c>
-      <c r="T12" t="s">
-        <v>105</v>
-      </c>
       <c r="U12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W12" t="s">
+        <v>51</v>
+      </c>
+      <c r="X12" t="s">
         <v>52</v>
       </c>
-      <c r="X12" t="s">
-        <v>53</v>
-      </c>
       <c r="Y12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
         <v>106</v>
       </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>107</v>
       </c>
-      <c r="D13" t="s">
-        <v>108</v>
-      </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G13">
         <v>27557</v>
@@ -2689,75 +2700,75 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P13" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q13" t="s">
         <v>109</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
+        <v>79</v>
+      </c>
+      <c r="S13" t="s">
         <v>110</v>
       </c>
-      <c r="R13" t="s">
-        <v>80</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>111</v>
       </c>
-      <c r="T13" t="s">
-        <v>112</v>
-      </c>
       <c r="U13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W13" t="s">
+        <v>51</v>
+      </c>
+      <c r="X13" t="s">
         <v>52</v>
       </c>
-      <c r="X13" t="s">
-        <v>53</v>
-      </c>
       <c r="Y13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
         <v>113</v>
       </c>
-      <c r="D14" t="s">
-        <v>114</v>
-      </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G14">
         <v>20633</v>
@@ -2775,75 +2786,75 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" t="s">
         <v>45</v>
       </c>
-      <c r="O14" t="s">
-        <v>46</v>
-      </c>
       <c r="P14" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q14" t="s">
         <v>109</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
+        <v>79</v>
+      </c>
+      <c r="S14" t="s">
         <v>110</v>
       </c>
-      <c r="R14" t="s">
-        <v>80</v>
-      </c>
-      <c r="S14" t="s">
-        <v>111</v>
-      </c>
       <c r="T14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W14" t="s">
+        <v>51</v>
+      </c>
+      <c r="X14" t="s">
         <v>52</v>
       </c>
-      <c r="X14" t="s">
-        <v>53</v>
-      </c>
       <c r="Y14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
         <v>116</v>
       </c>
-      <c r="D15" t="s">
-        <v>117</v>
-      </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2861,75 +2872,75 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" t="s">
         <v>18</v>
       </c>
-      <c r="N15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O15" t="s">
-        <v>19</v>
-      </c>
       <c r="P15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q15" t="s">
         <v>109</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
+        <v>79</v>
+      </c>
+      <c r="S15" t="s">
         <v>110</v>
       </c>
-      <c r="R15" t="s">
-        <v>80</v>
-      </c>
-      <c r="S15" t="s">
-        <v>111</v>
-      </c>
       <c r="T15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W15" t="s">
+        <v>51</v>
+      </c>
+      <c r="X15" t="s">
         <v>52</v>
       </c>
-      <c r="X15" t="s">
-        <v>53</v>
-      </c>
       <c r="Y15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
         <v>119</v>
       </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>120</v>
       </c>
-      <c r="D16" t="s">
-        <v>121</v>
-      </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G16">
         <v>2532</v>
@@ -2947,75 +2958,75 @@
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O16" t="s">
+        <v>121</v>
+      </c>
+      <c r="P16" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" t="s">
         <v>122</v>
       </c>
-      <c r="P16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
+        <v>79</v>
+      </c>
+      <c r="S16" t="s">
+        <v>17</v>
+      </c>
+      <c r="T16" t="s">
         <v>123</v>
       </c>
-      <c r="R16" t="s">
-        <v>80</v>
-      </c>
-      <c r="S16" t="s">
-        <v>18</v>
-      </c>
-      <c r="T16" t="s">
-        <v>124</v>
-      </c>
       <c r="U16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W16" t="s">
+        <v>51</v>
+      </c>
+      <c r="X16" t="s">
         <v>52</v>
       </c>
-      <c r="X16" t="s">
-        <v>53</v>
-      </c>
       <c r="Y16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
         <v>125</v>
       </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>126</v>
       </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G17">
         <v>47530</v>
@@ -3033,76 +3044,76 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N17" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" t="s">
         <v>45</v>
       </c>
-      <c r="O17" t="s">
-        <v>46</v>
-      </c>
       <c r="P17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q17" t="s">
+        <v>127</v>
+      </c>
+      <c r="R17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S17" t="s">
+        <v>17</v>
+      </c>
+      <c r="T17" t="s">
         <v>128</v>
       </c>
-      <c r="R17" t="s">
-        <v>49</v>
-      </c>
-      <c r="S17" t="s">
-        <v>18</v>
-      </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
+        <v>17</v>
+      </c>
+      <c r="V17" t="s">
+        <v>26</v>
+      </c>
+      <c r="W17" t="s">
+        <v>51</v>
+      </c>
+      <c r="X17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y17" t="s">
         <v>129</v>
       </c>
-      <c r="U17" t="s">
-        <v>18</v>
-      </c>
-      <c r="V17" t="s">
-        <v>27</v>
-      </c>
-      <c r="W17" t="s">
-        <v>52</v>
-      </c>
-      <c r="X17" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>130</v>
-      </c>
       <c r="Z17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
         <v>234</v>
       </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" t="s">
-        <v>235</v>
-      </c>
       <c r="G18">
         <v>0</v>
       </c>
@@ -3110,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -3119,72 +3130,72 @@
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" t="s">
+        <v>44</v>
+      </c>
+      <c r="O18" t="s">
         <v>18</v>
       </c>
-      <c r="N18" t="s">
-        <v>45</v>
-      </c>
-      <c r="O18" t="s">
-        <v>19</v>
-      </c>
       <c r="P18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q18" t="s">
         <v>133</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
+        <v>79</v>
+      </c>
+      <c r="S18" t="s">
+        <v>17</v>
+      </c>
+      <c r="T18" t="s">
         <v>134</v>
       </c>
-      <c r="R18" t="s">
-        <v>80</v>
-      </c>
-      <c r="S18" t="s">
-        <v>18</v>
-      </c>
-      <c r="T18" t="s">
-        <v>135</v>
-      </c>
       <c r="U18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W18" t="s">
+        <v>51</v>
+      </c>
+      <c r="X18" t="s">
         <v>52</v>
       </c>
-      <c r="X18" t="s">
-        <v>53</v>
-      </c>
       <c r="Y18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" t="s">
         <v>136</v>
       </c>
-      <c r="D19" t="s">
-        <v>137</v>
-      </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3193,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3202,72 +3213,72 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19" t="s">
         <v>45</v>
       </c>
-      <c r="O19" t="s">
-        <v>46</v>
-      </c>
       <c r="P19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q19" t="s">
+        <v>137</v>
+      </c>
+      <c r="R19" t="s">
+        <v>79</v>
+      </c>
+      <c r="S19" t="s">
+        <v>17</v>
+      </c>
+      <c r="T19" t="s">
         <v>138</v>
       </c>
-      <c r="R19" t="s">
-        <v>80</v>
-      </c>
-      <c r="S19" t="s">
-        <v>18</v>
-      </c>
-      <c r="T19" t="s">
-        <v>139</v>
-      </c>
       <c r="U19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W19" t="s">
+        <v>51</v>
+      </c>
+      <c r="X19" t="s">
         <v>52</v>
       </c>
-      <c r="X19" t="s">
-        <v>53</v>
-      </c>
       <c r="Y19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" t="s">
         <v>140</v>
       </c>
-      <c r="D20" t="s">
-        <v>141</v>
-      </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3276,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -3285,72 +3296,72 @@
         <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W20" t="s">
+        <v>51</v>
+      </c>
+      <c r="X20" t="s">
         <v>52</v>
       </c>
-      <c r="X20" t="s">
-        <v>53</v>
-      </c>
       <c r="Y20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" t="s">
         <v>143</v>
       </c>
-      <c r="D21" t="s">
-        <v>144</v>
-      </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3359,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -3368,72 +3379,72 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21" t="s">
         <v>15</v>
       </c>
-      <c r="M21" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" t="s">
-        <v>45</v>
-      </c>
-      <c r="O21" t="s">
-        <v>16</v>
-      </c>
       <c r="P21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q21" t="s">
+        <v>144</v>
+      </c>
+      <c r="R21" t="s">
+        <v>79</v>
+      </c>
+      <c r="S21" t="s">
+        <v>17</v>
+      </c>
+      <c r="T21" t="s">
         <v>145</v>
       </c>
-      <c r="R21" t="s">
-        <v>80</v>
-      </c>
-      <c r="S21" t="s">
-        <v>18</v>
-      </c>
-      <c r="T21" t="s">
-        <v>146</v>
-      </c>
       <c r="U21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W21" t="s">
+        <v>51</v>
+      </c>
+      <c r="X21" t="s">
         <v>52</v>
       </c>
-      <c r="X21" t="s">
-        <v>53</v>
-      </c>
       <c r="Y21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA21" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" t="s">
         <v>147</v>
       </c>
-      <c r="D22" t="s">
-        <v>148</v>
-      </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3442,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -3451,72 +3462,72 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W22" t="s">
+        <v>51</v>
+      </c>
+      <c r="X22" t="s">
         <v>52</v>
       </c>
-      <c r="X22" t="s">
-        <v>53</v>
-      </c>
       <c r="Y22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" t="s">
         <v>150</v>
       </c>
-      <c r="D23" t="s">
-        <v>151</v>
-      </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -3525,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3534,72 +3545,72 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M23" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" t="s">
         <v>18</v>
       </c>
-      <c r="N23" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" t="s">
-        <v>19</v>
-      </c>
       <c r="P23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q23" t="s">
+        <v>151</v>
+      </c>
+      <c r="R23" t="s">
+        <v>79</v>
+      </c>
+      <c r="S23" t="s">
+        <v>17</v>
+      </c>
+      <c r="T23" t="s">
         <v>152</v>
       </c>
-      <c r="R23" t="s">
-        <v>80</v>
-      </c>
-      <c r="S23" t="s">
-        <v>18</v>
-      </c>
-      <c r="T23" t="s">
-        <v>153</v>
-      </c>
       <c r="U23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W23" t="s">
+        <v>51</v>
+      </c>
+      <c r="X23" t="s">
         <v>52</v>
       </c>
-      <c r="X23" t="s">
-        <v>53</v>
-      </c>
       <c r="Y23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA23" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" t="s">
         <v>154</v>
       </c>
-      <c r="D24" t="s">
-        <v>155</v>
-      </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3608,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3617,73 +3628,73 @@
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N24" t="s">
+        <v>44</v>
+      </c>
+      <c r="O24" t="s">
         <v>45</v>
       </c>
-      <c r="O24" t="s">
-        <v>46</v>
-      </c>
       <c r="P24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q24" t="s">
+        <v>99</v>
+      </c>
+      <c r="R24" t="s">
+        <v>79</v>
+      </c>
+      <c r="S24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T24" t="s">
         <v>100</v>
       </c>
-      <c r="R24" t="s">
-        <v>80</v>
-      </c>
-      <c r="S24" t="s">
-        <v>18</v>
-      </c>
-      <c r="T24" t="s">
-        <v>101</v>
-      </c>
       <c r="U24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W24" t="s">
+        <v>51</v>
+      </c>
+      <c r="X24" t="s">
         <v>52</v>
       </c>
-      <c r="X24" t="s">
-        <v>53</v>
-      </c>
       <c r="Y24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
         <v>240</v>
       </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>156</v>
-      </c>
-      <c r="D25" t="s">
-        <v>157</v>
-      </c>
-      <c r="E25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" t="s">
-        <v>241</v>
-      </c>
       <c r="G25">
         <v>0</v>
       </c>
@@ -3691,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3700,72 +3711,72 @@
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W25" t="s">
+        <v>51</v>
+      </c>
+      <c r="X25" t="s">
         <v>52</v>
       </c>
-      <c r="X25" t="s">
-        <v>53</v>
-      </c>
       <c r="Y25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA25" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" t="s">
         <v>159</v>
       </c>
-      <c r="D26" t="s">
-        <v>160</v>
-      </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -3774,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3783,72 +3794,72 @@
         <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q26" t="s">
+        <v>160</v>
+      </c>
+      <c r="R26" t="s">
+        <v>79</v>
+      </c>
+      <c r="S26" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" t="s">
         <v>161</v>
       </c>
-      <c r="R26" t="s">
-        <v>80</v>
-      </c>
-      <c r="S26" t="s">
-        <v>18</v>
-      </c>
-      <c r="T26" t="s">
-        <v>162</v>
-      </c>
       <c r="U26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W26" t="s">
+        <v>51</v>
+      </c>
+      <c r="X26" t="s">
         <v>52</v>
       </c>
-      <c r="X26" t="s">
-        <v>53</v>
-      </c>
       <c r="Y26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="G27" s="1">
         <v>46290</v>
@@ -3866,55 +3877,55 @@
         <v>1</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="P27" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="R27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W27" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="R27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W27" s="1" t="s">
+      <c r="X27" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="X27" s="1" t="s">
+      <c r="Y27" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Y27" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="Z27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
@@ -3938,10 +3949,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <pane xSplit="14340" topLeftCell="Y1" activePane="topRight"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <pane xSplit="14340" activePane="topRight"/>
       <selection activeCell="AA4" sqref="AA4"/>
-      <selection pane="topRight" activeCell="AA19" sqref="AA19"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3969,109 +3980,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16" thickBot="1">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" t="s">
         <v>38</v>
       </c>
-      <c r="V1" t="s">
-        <v>13</v>
-      </c>
-      <c r="W1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>39</v>
-      </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="16" thickTop="1">
       <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" t="s">
         <v>174</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>175</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>176</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>177</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>178</v>
-      </c>
-      <c r="F2" t="s">
-        <v>179</v>
       </c>
       <c r="G2">
         <v>25698</v>
@@ -4089,72 +4100,72 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" t="s">
         <v>45</v>
       </c>
-      <c r="O2" t="s">
-        <v>46</v>
-      </c>
       <c r="P2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
+        <v>179</v>
+      </c>
+      <c r="R2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" t="s">
+        <v>138</v>
+      </c>
+      <c r="U2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" t="s">
         <v>180</v>
       </c>
-      <c r="R2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>181</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>182</v>
       </c>
-      <c r="Y2" t="s">
-        <v>183</v>
-      </c>
       <c r="AA2" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:28">
       <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
         <v>174</v>
       </c>
-      <c r="B3" t="s">
-        <v>175</v>
-      </c>
       <c r="C3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" t="s">
         <v>184</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" t="s">
         <v>185</v>
-      </c>
-      <c r="E3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F3" t="s">
-        <v>186</v>
       </c>
       <c r="G3">
         <v>10410</v>
@@ -4172,75 +4183,75 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" t="s">
         <v>18</v>
       </c>
-      <c r="N3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" t="s">
-        <v>19</v>
-      </c>
       <c r="P3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>79</v>
       </c>
-      <c r="R3" t="s">
-        <v>80</v>
-      </c>
       <c r="S3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W3" t="s">
+        <v>180</v>
+      </c>
+      <c r="X3" t="s">
         <v>181</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>182</v>
       </c>
-      <c r="Y3" t="s">
-        <v>183</v>
-      </c>
       <c r="Z3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
         <v>187</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>188</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>189</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" t="s">
         <v>190</v>
-      </c>
-      <c r="E4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" t="s">
-        <v>191</v>
       </c>
       <c r="G4">
         <v>3784</v>
@@ -4258,75 +4269,75 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q4" t="s">
         <v>192</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" t="s">
         <v>193</v>
       </c>
-      <c r="R4" t="s">
-        <v>80</v>
-      </c>
-      <c r="S4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
+        <v>17</v>
+      </c>
+      <c r="V4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" t="s">
         <v>194</v>
       </c>
-      <c r="U4" t="s">
-        <v>18</v>
-      </c>
-      <c r="V4" t="s">
-        <v>26</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>195</v>
       </c>
-      <c r="X4" t="s">
-        <v>196</v>
-      </c>
       <c r="Y4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" t="s">
         <v>187</v>
       </c>
-      <c r="B5" t="s">
-        <v>188</v>
-      </c>
       <c r="C5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" t="s">
         <v>197</v>
       </c>
-      <c r="D5" t="s">
-        <v>198</v>
-      </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G5">
         <v>229</v>
@@ -4344,73 +4355,73 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q5" t="s">
         <v>192</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
+        <v>79</v>
+      </c>
+      <c r="S5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" t="s">
         <v>193</v>
       </c>
-      <c r="R5" t="s">
-        <v>80</v>
-      </c>
-      <c r="S5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
+        <v>17</v>
+      </c>
+      <c r="V5" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" t="s">
         <v>194</v>
       </c>
-      <c r="U5" t="s">
-        <v>18</v>
-      </c>
-      <c r="V5" t="s">
-        <v>26</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>195</v>
       </c>
-      <c r="X5" t="s">
-        <v>196</v>
-      </c>
       <c r="Y5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" t="s">
         <v>199</v>
       </c>
-      <c r="B6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>200</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" t="s">
         <v>201</v>
       </c>
-      <c r="E6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F6" t="s">
-        <v>202</v>
-      </c>
       <c r="G6">
         <v>0</v>
       </c>
@@ -4418,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -4427,73 +4438,73 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" t="s">
         <v>18</v>
       </c>
-      <c r="N6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" t="s">
-        <v>19</v>
-      </c>
       <c r="P6" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q6" t="s">
         <v>203</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S6" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" t="s">
         <v>204</v>
       </c>
-      <c r="R6" t="s">
-        <v>80</v>
-      </c>
-      <c r="S6" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" t="s">
-        <v>205</v>
-      </c>
       <c r="U6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W6" t="s">
+        <v>194</v>
+      </c>
+      <c r="X6" t="s">
         <v>195</v>
       </c>
-      <c r="X6" t="s">
-        <v>196</v>
-      </c>
       <c r="Y6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D7" t="s">
         <v>206</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" t="s">
         <v>207</v>
       </c>
-      <c r="E7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F7" t="s">
-        <v>208</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
@@ -4501,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -4510,52 +4521,52 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" t="s">
         <v>45</v>
       </c>
-      <c r="O7" t="s">
-        <v>46</v>
-      </c>
       <c r="P7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q7" t="s">
+        <v>208</v>
+      </c>
+      <c r="R7" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" t="s">
         <v>209</v>
       </c>
-      <c r="R7" t="s">
-        <v>80</v>
-      </c>
-      <c r="S7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T7" t="s">
-        <v>210</v>
-      </c>
       <c r="U7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W7" t="s">
+        <v>194</v>
+      </c>
+      <c r="X7" t="s">
         <v>195</v>
       </c>
-      <c r="X7" t="s">
-        <v>196</v>
-      </c>
       <c r="Y7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AB7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
